--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA856C7-D9CF-47A5-BBA2-AE4BE2BC2F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395529B3-E0FF-487E-BE30-1A9B96BDF8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18840" yWindow="5440" windowWidth="18100" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19490" yWindow="11280" windowWidth="18100" windowHeight="9340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PubliclyTraded" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -71,6 +71,81 @@
   </si>
   <si>
     <t>BAYRY</t>
+  </si>
+  <si>
+    <t>LNN</t>
+  </si>
+  <si>
+    <t>ANDE</t>
+  </si>
+  <si>
+    <t>CAG</t>
+  </si>
+  <si>
+    <t>NTR</t>
+  </si>
+  <si>
+    <t>BYND</t>
+  </si>
+  <si>
+    <t>Beyond Meat</t>
+  </si>
+  <si>
+    <t>Conagra</t>
+  </si>
+  <si>
+    <t>Nutrien</t>
+  </si>
+  <si>
+    <t>The Andersons</t>
+  </si>
+  <si>
+    <t>Louis Dreyfus</t>
+  </si>
+  <si>
+    <t>Archer Daniels Midland</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>Corteva</t>
+  </si>
+  <si>
+    <t>Bayer</t>
+  </si>
+  <si>
+    <t>PepsiCo</t>
+  </si>
+  <si>
+    <t>Nestle</t>
+  </si>
+  <si>
+    <t>Kraft Heinz</t>
+  </si>
+  <si>
+    <t>Anheuser-Bush InBev</t>
+  </si>
+  <si>
+    <t>General Mills</t>
+  </si>
+  <si>
+    <t>Mars Inc.</t>
+  </si>
+  <si>
+    <t>Tyson</t>
+  </si>
+  <si>
+    <t>JBS</t>
+  </si>
+  <si>
+    <t>Smithfield</t>
+  </si>
+  <si>
+    <t>SFD</t>
+  </si>
+  <si>
+    <t>TSN</t>
   </si>
 </sst>
 </file>
@@ -398,15 +473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
@@ -481,14 +556,121 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
       <c r="C10" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395529B3-E0FF-487E-BE30-1A9B96BDF8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CAA478-E6EB-48AC-8CCC-10E926F27388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19490" yWindow="11280" windowWidth="18100" windowHeight="9340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="8570" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PubliclyTraded" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>TSN</t>
+  </si>
+  <si>
+    <t>Bunge</t>
+  </si>
+  <si>
+    <t>BG</t>
   </si>
 </sst>
 </file>
@@ -475,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,6 +581,14 @@
       </c>
       <c r="C10" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CAA478-E6EB-48AC-8CCC-10E926F27388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF12E44-28D7-4EF3-965D-36F4733F4A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="8570" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PubliclyTraded" sheetId="1" r:id="rId1"/>
     <sheet name="Private" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
   <si>
     <t>Name</t>
   </si>
@@ -55,9 +66,6 @@
     <t>Deere</t>
   </si>
   <si>
-    <t>Titan Machinery</t>
-  </si>
-  <si>
     <t>Equipment</t>
   </si>
   <si>
@@ -152,13 +160,196 @@
   </si>
   <si>
     <t>BG</t>
+  </si>
+  <si>
+    <t>Nutrien Ag Solutions</t>
+  </si>
+  <si>
+    <t>Helena Agri-Enterprises</t>
+  </si>
+  <si>
+    <t>Simplot Grower Solutions</t>
+  </si>
+  <si>
+    <t>GROWMARK</t>
+  </si>
+  <si>
+    <t>Wilbur-Ellis</t>
+  </si>
+  <si>
+    <t>CHS</t>
+  </si>
+  <si>
+    <t>GreenPoint AG</t>
+  </si>
+  <si>
+    <t>Titan</t>
+  </si>
+  <si>
+    <t>Caterpillar</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>Kubota</t>
+  </si>
+  <si>
+    <t>KUBTY (Tokyo)</t>
+  </si>
+  <si>
+    <t>Deutz Ag / Deutz Fahr</t>
+  </si>
+  <si>
+    <t>Steiger</t>
+  </si>
+  <si>
+    <t>Lindsay</t>
+  </si>
+  <si>
+    <t>Valmont</t>
+  </si>
+  <si>
+    <t>VMI</t>
+  </si>
+  <si>
+    <t>Planet Labs</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Buhler Industries Inc</t>
+  </si>
+  <si>
+    <t>Alta Equipment Group</t>
+  </si>
+  <si>
+    <t>iPower</t>
+  </si>
+  <si>
+    <t>Monarch</t>
+  </si>
+  <si>
+    <t>Carbon Robotics</t>
+  </si>
+  <si>
+    <t>Advanced Farm</t>
+  </si>
+  <si>
+    <t>Bonsai</t>
+  </si>
+  <si>
+    <t>Plenty</t>
+  </si>
+  <si>
+    <t>App Harvest</t>
+  </si>
+  <si>
+    <t>Aigen</t>
+  </si>
+  <si>
+    <t>Agtonomy</t>
+  </si>
+  <si>
+    <t>Agrobot</t>
+  </si>
+  <si>
+    <t>Scythe</t>
+  </si>
+  <si>
+    <t>Nexus</t>
+  </si>
+  <si>
+    <t>Blue River Technology</t>
+  </si>
+  <si>
+    <t>Electric Sheep</t>
+  </si>
+  <si>
+    <t>Yard</t>
+  </si>
+  <si>
+    <t>farm-ng</t>
+  </si>
+  <si>
+    <t>Verdant Robotics</t>
+  </si>
+  <si>
+    <t>POET</t>
+  </si>
+  <si>
+    <t>Valero Energy</t>
+  </si>
+  <si>
+    <t>Green Plains, Inc.</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Cargill</t>
+  </si>
+  <si>
+    <t>GrainCorp</t>
+  </si>
+  <si>
+    <t>Adecoagro</t>
+  </si>
+  <si>
+    <t>Alico - Citrus</t>
+  </si>
+  <si>
+    <t>Mitsubishi - Indiana Pork</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Upside</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +365,36 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,15 +414,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{1C82EF22-B437-4507-8753-D823541A881E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -479,226 +713,664 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E32"/>
+  <dimension ref="B1:AF48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.90625" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+      <c r="G2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="S2" s="5">
+        <v>2022</v>
+      </c>
+      <c r="T2" s="5">
+        <v>2023</v>
+      </c>
+      <c r="U2" s="5">
+        <v>2024</v>
+      </c>
+      <c r="V2" s="5">
+        <v>2025</v>
+      </c>
+      <c r="W2" s="5">
+        <v>2026</v>
+      </c>
+      <c r="X2" s="5">
+        <v>2027</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>2022</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>2023</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>2024</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>2025</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>2026</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>2027</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B4" s="6">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B5" s="6">
+        <f t="shared" ref="B5:B48" si="0">B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B14" s="6">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B15" s="6">
+        <f>B14+1</f>
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="B16" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="6">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="6">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="6">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="6">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="6">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="6">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="6">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="6">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="6">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="6">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45" s="6">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46" s="6">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="6">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>34</v>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B48" s="6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{E4792105-EC7E-497D-BB60-E24640D00321}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{11B451F4-05BC-42A1-80EB-4242A8537D3E}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{9F2B4896-6A92-43C3-90A8-01C4785E8E3D}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{0B7080EA-EFB6-4697-92E0-7C6C51429FAA}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{DA60F144-0FAA-4EE6-B8FF-2AA9A77FC0B2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884D4106-64F7-4F9F-9D5E-38814FBE64D5}">
-  <dimension ref="A1"/>
+  <dimension ref="C3:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -706,7 +1378,98 @@
     <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF12E44-28D7-4EF3-965D-36F4733F4A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63700E94-CE45-47AF-8F3B-14E0FF283026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
   <si>
     <t>Name</t>
   </si>
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AF48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1015,7 +1015,7 @@
         <f>B14+1</f>
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D15" t="s">
@@ -1027,7 +1027,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D16" t="s">
@@ -1039,7 +1039,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D17" t="s">
@@ -1051,7 +1051,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D18" t="s">
@@ -1072,7 +1072,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D20" t="s">
@@ -1123,7 +1123,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D25" t="s">
@@ -1198,7 +1198,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D33" t="s">
@@ -1210,7 +1210,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D34" t="s">
@@ -1243,7 +1243,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D37" t="s">
@@ -1340,16 +1340,13 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
-      </c>
-      <c r="C48" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1359,9 +1356,18 @@
     <hyperlink ref="C5" r:id="rId3" xr:uid="{9F2B4896-6A92-43C3-90A8-01C4785E8E3D}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{0B7080EA-EFB6-4697-92E0-7C6C51429FAA}"/>
     <hyperlink ref="C11" r:id="rId5" xr:uid="{DA60F144-0FAA-4EE6-B8FF-2AA9A77FC0B2}"/>
+    <hyperlink ref="C15" r:id="rId6" xr:uid="{80F3A431-FCD1-4749-BC3F-6F6CF41D202E}"/>
+    <hyperlink ref="C16" r:id="rId7" xr:uid="{1089EEA3-ECD8-4D62-96D8-AD0C91E4FF59}"/>
+    <hyperlink ref="C17" r:id="rId8" xr:uid="{89181273-63F7-4051-BD3D-F2E711F0F9AC}"/>
+    <hyperlink ref="C18" r:id="rId9" xr:uid="{A3566864-119C-4056-A95A-3F44EC9C7260}"/>
+    <hyperlink ref="C20" r:id="rId10" xr:uid="{94DBF269-9017-4440-AF9D-C3966428ABC5}"/>
+    <hyperlink ref="C25" r:id="rId11" xr:uid="{7D546171-7BCF-43CE-947B-C0BEDAB801CF}"/>
+    <hyperlink ref="C33" r:id="rId12" xr:uid="{C73214AB-98B0-497C-8C09-4B1CD8AF4C61}"/>
+    <hyperlink ref="C34" r:id="rId13" xr:uid="{5EE9F009-D393-4C47-B0F1-2E315E13F2B6}"/>
+    <hyperlink ref="C37" r:id="rId14" xr:uid="{393C21F9-BAA9-4398-B8AD-70656C748927}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63700E94-CE45-47AF-8F3B-14E0FF283026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678D9CBF-AE5E-4F2C-89DD-7425360C4B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PubliclyTraded" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -343,6 +343,15 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>Mosaic</t>
+  </si>
+  <si>
+    <t>CF Industries</t>
+  </si>
+  <si>
+    <t>FMC Corp</t>
   </si>
 </sst>
 </file>
@@ -713,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AF48"/>
+  <dimension ref="B1:AF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -859,7 +868,7 @@
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B5" s="6">
-        <f t="shared" ref="B5:B48" si="0">B4+1</f>
+        <f t="shared" ref="B5:B51" si="0">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -931,7 +940,7 @@
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
-        <f t="shared" si="0"/>
+        <f>B8+1</f>
         <v>7</v>
       </c>
       <c r="C9" t="s">
@@ -1136,7 +1145,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
@@ -1145,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
@@ -1154,7 +1163,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
@@ -1163,7 +1172,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
@@ -1172,7 +1181,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
@@ -1181,7 +1190,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
@@ -1190,7 +1199,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
@@ -1198,11 +1207,8 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" t="s">
-        <v>16</v>
+      <c r="C33" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
@@ -1210,11 +1216,8 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" t="s">
-        <v>18</v>
+      <c r="C34" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
@@ -1223,10 +1226,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
@@ -1234,8 +1234,11 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C36" t="s">
-        <v>35</v>
+      <c r="C36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
@@ -1244,10 +1247,10 @@
         <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
@@ -1256,7 +1259,10 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>34</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
@@ -1265,7 +1271,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
@@ -1273,8 +1279,11 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C40" t="s">
-        <v>29</v>
+      <c r="C40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
@@ -1283,7 +1292,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
@@ -1292,7 +1301,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
@@ -1301,7 +1310,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
@@ -1310,7 +1319,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
@@ -1319,10 +1328,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
@@ -1331,7 +1337,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
@@ -1340,13 +1346,43 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49" s="6">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B50" s="6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B51" s="6">
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1362,9 +1398,9 @@
     <hyperlink ref="C18" r:id="rId9" xr:uid="{A3566864-119C-4056-A95A-3F44EC9C7260}"/>
     <hyperlink ref="C20" r:id="rId10" xr:uid="{94DBF269-9017-4440-AF9D-C3966428ABC5}"/>
     <hyperlink ref="C25" r:id="rId11" xr:uid="{7D546171-7BCF-43CE-947B-C0BEDAB801CF}"/>
-    <hyperlink ref="C33" r:id="rId12" xr:uid="{C73214AB-98B0-497C-8C09-4B1CD8AF4C61}"/>
-    <hyperlink ref="C34" r:id="rId13" xr:uid="{5EE9F009-D393-4C47-B0F1-2E315E13F2B6}"/>
-    <hyperlink ref="C37" r:id="rId14" xr:uid="{393C21F9-BAA9-4398-B8AD-70656C748927}"/>
+    <hyperlink ref="C36" r:id="rId12" xr:uid="{C73214AB-98B0-497C-8C09-4B1CD8AF4C61}"/>
+    <hyperlink ref="C37" r:id="rId13" xr:uid="{5EE9F009-D393-4C47-B0F1-2E315E13F2B6}"/>
+    <hyperlink ref="C40" r:id="rId14" xr:uid="{393C21F9-BAA9-4398-B8AD-70656C748927}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId15"/>

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678D9CBF-AE5E-4F2C-89DD-7425360C4B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EABF17C-A9E0-4C46-8593-F277CA5B2C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PubliclyTraded" sheetId="1" r:id="rId1"/>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EABF17C-A9E0-4C46-8593-F277CA5B2C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330DE202-DDC8-4411-9FC9-11AE139D1940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PubliclyTraded" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>FMC Corp</t>
+  </si>
+  <si>
+    <t>MOS</t>
   </si>
 </sst>
 </file>
@@ -724,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1144,8 +1147,11 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
@@ -1401,9 +1407,10 @@
     <hyperlink ref="C36" r:id="rId12" xr:uid="{C73214AB-98B0-497C-8C09-4B1CD8AF4C61}"/>
     <hyperlink ref="C37" r:id="rId13" xr:uid="{5EE9F009-D393-4C47-B0F1-2E315E13F2B6}"/>
     <hyperlink ref="C40" r:id="rId14" xr:uid="{393C21F9-BAA9-4398-B8AD-70656C748927}"/>
+    <hyperlink ref="C26" r:id="rId15" xr:uid="{3885F206-1C4C-4217-ABA8-F0F256EB014F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330DE202-DDC8-4411-9FC9-11AE139D1940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D8BC85-9F51-4DB1-BCC7-EEF8F27AD6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="0" windowWidth="14630" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PubliclyTraded" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>MOS</t>
+  </si>
+  <si>
+    <t>Satellite Imagery</t>
   </si>
 </sst>
 </file>
@@ -727,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1006,11 +1009,17 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.35">
@@ -1408,9 +1417,10 @@
     <hyperlink ref="C37" r:id="rId13" xr:uid="{5EE9F009-D393-4C47-B0F1-2E315E13F2B6}"/>
     <hyperlink ref="C40" r:id="rId14" xr:uid="{393C21F9-BAA9-4398-B8AD-70656C748927}"/>
     <hyperlink ref="C26" r:id="rId15" xr:uid="{3885F206-1C4C-4217-ABA8-F0F256EB014F}"/>
+    <hyperlink ref="C13" r:id="rId16" xr:uid="{8B931CCC-3957-47DF-B598-7C12F0DF3FE3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D8BC85-9F51-4DB1-BCC7-EEF8F27AD6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418CF487-A87D-4EA6-A326-7AA5875B73B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="0" windowWidth="14630" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="190" yWindow="1080" windowWidth="18610" windowHeight="17710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PubliclyTraded" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -446,6 +446,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -731,7 +733,7 @@
   <dimension ref="B1:AF51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -762,19 +764,19 @@
         <v>88</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>94</v>
@@ -990,6 +992,26 @@
       </c>
       <c r="F11" t="s">
         <v>10</v>
+      </c>
+      <c r="G11">
+        <v>143.75</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1561</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1561</v>
+      </c>
+      <c r="J11" s="7">
+        <f>+-196+347</f>
+        <v>151</v>
+      </c>
+      <c r="K11" s="7">
+        <f>+I11+J11</f>
+        <v>1712</v>
+      </c>
+      <c r="L11" s="8">
+        <v>45847</v>
       </c>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.35">

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418CF487-A87D-4EA6-A326-7AA5875B73B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5DC165-887E-4677-9B46-4DA0F494C6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="190" yWindow="1080" windowWidth="18610" windowHeight="17710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2530" yWindow="2770" windowWidth="16360" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PubliclyTraded" sheetId="1" r:id="rId1"/>
-    <sheet name="Private" sheetId="2" r:id="rId2"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
@@ -730,16 +729,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AF51"/>
+  <dimension ref="B1:AF72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="2.90625" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
@@ -876,7 +878,7 @@
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B5" s="6">
-        <f t="shared" ref="B5:B51" si="0">B4+1</f>
+        <f t="shared" ref="B5:B68" si="0">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1220,6 +1222,9 @@
       <c r="C30" t="s">
         <v>42</v>
       </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="6">
@@ -1398,7 +1403,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1407,7 +1412,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1416,10 +1421,244 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B52" s="6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B53" s="6">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B54" s="6">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B55" s="6">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B56" s="6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B57" s="6">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B58" s="6">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B59" s="6">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B60" s="6">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B61" s="6">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B62" s="6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B63" s="6">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B64" s="6">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C64" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B65" s="6">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B66" s="6">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B67" s="6">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B68" s="6">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B69" s="6">
+        <f t="shared" ref="B69:B72" si="1">B68+1</f>
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B70" s="6">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B71" s="6">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B72" s="6">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1444,113 +1683,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884D4106-64F7-4F9F-9D5E-38814FBE64D5}">
-  <dimension ref="C3:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5DC165-887E-4677-9B46-4DA0F494C6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C94CAC-A3A5-409C-ADDA-A6EBDF161BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2530" yWindow="2770" windowWidth="16360" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="108">
   <si>
     <t>Name</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Deutz Ag / Deutz Fahr</t>
   </si>
   <si>
-    <t>Steiger</t>
-  </si>
-  <si>
     <t>Lindsay</t>
   </si>
   <si>
@@ -357,6 +354,12 @@
   </si>
   <si>
     <t>Satellite Imagery</t>
+  </si>
+  <si>
+    <t>Industry 3</t>
+  </si>
+  <si>
+    <t>Irrigation</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -447,6 +450,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -729,27 +734,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AF72"/>
+  <dimension ref="B1:AG71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="2.90625" customWidth="1"/>
     <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:33" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -759,89 +766,92 @@
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="T2" s="5">
+        <v>2022</v>
+      </c>
+      <c r="U2" s="5">
+        <v>2023</v>
+      </c>
+      <c r="V2" s="5">
+        <v>2024</v>
+      </c>
+      <c r="W2" s="5">
+        <v>2025</v>
+      </c>
+      <c r="X2" s="5">
+        <v>2026</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>2027</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>2022</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>2023</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>2024</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>2025</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>2026</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>2027</v>
+      </c>
+      <c r="AF2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="S2" s="5">
-        <v>2022</v>
-      </c>
-      <c r="T2" s="5">
-        <v>2023</v>
-      </c>
-      <c r="U2" s="5">
-        <v>2024</v>
-      </c>
-      <c r="V2" s="5">
-        <v>2025</v>
-      </c>
-      <c r="W2" s="5">
-        <v>2026</v>
-      </c>
-      <c r="X2" s="5">
-        <v>2027</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>2022</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>2023</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>2024</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>2025</v>
-      </c>
-      <c r="AC2" s="5">
-        <v>2026</v>
-      </c>
-      <c r="AD2" s="5">
-        <v>2027</v>
-      </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AF2" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -854,11 +864,11 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B4" s="6">
         <f>B3+1</f>
         <v>2</v>
@@ -872,13 +882,13 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B5" s="6">
-        <f t="shared" ref="B5:B68" si="0">B4+1</f>
+        <f t="shared" ref="B5:B67" si="0">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -890,11 +900,11 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -908,11 +918,11 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -926,11 +936,11 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -944,11 +954,11 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <f>B8+1</f>
         <v>7</v>
@@ -959,26 +969,52 @@
       <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
-        <f t="shared" si="0"/>
+        <f>B9+1</f>
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="G10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10">
+        <v>143.75</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1561</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1561</v>
+      </c>
+      <c r="K10" s="7">
+        <f>+-196+347</f>
+        <v>151</v>
+      </c>
+      <c r="L10" s="7">
+        <f>+J10+K10</f>
+        <v>1712</v>
+      </c>
+      <c r="M10" s="8">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -987,96 +1023,79 @@
         <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G11">
-        <v>143.75</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1561</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1561</v>
-      </c>
-      <c r="J11" s="7">
-        <f>+-196+347</f>
-        <v>151</v>
-      </c>
-      <c r="K11" s="7">
-        <f>+I11+J11</f>
-        <v>1712</v>
-      </c>
-      <c r="L11" s="8">
-        <v>45847</v>
-      </c>
-    </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>56</v>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" t="s">
         <v>59</v>
       </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
-        <f t="shared" si="0"/>
+        <f>B13+1</f>
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
-        <f>B14+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
@@ -1085,10 +1104,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
@@ -1096,11 +1115,8 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
+      <c r="C18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
@@ -1108,8 +1124,11 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" t="s">
-        <v>23</v>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
@@ -1117,11 +1136,11 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>24</v>
+      <c r="C20" t="s">
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
@@ -1132,9 +1151,6 @@
       <c r="C21" t="s">
         <v>83</v>
       </c>
-      <c r="D21" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="6">
@@ -1159,8 +1175,11 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" t="s">
-        <v>86</v>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
@@ -1169,10 +1188,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
@@ -1180,11 +1199,8 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>102</v>
-      </c>
-      <c r="D26" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
@@ -1202,7 +1218,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
@@ -1211,7 +1227,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
@@ -1220,10 +1239,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
@@ -1232,7 +1248,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
@@ -1241,7 +1257,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
@@ -1250,7 +1266,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
@@ -1259,7 +1275,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
@@ -1267,8 +1283,11 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" t="s">
-        <v>47</v>
+      <c r="C35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
@@ -1277,10 +1296,10 @@
         <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
@@ -1288,11 +1307,11 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>19</v>
+      <c r="C37" t="s">
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
@@ -1301,10 +1320,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
@@ -1312,8 +1328,11 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C39" t="s">
-        <v>35</v>
+      <c r="C39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
@@ -1321,11 +1340,8 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" t="s">
-        <v>37</v>
+      <c r="C40" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
@@ -1334,7 +1350,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
@@ -1343,7 +1359,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
@@ -1352,7 +1368,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
@@ -1361,7 +1377,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
@@ -1370,7 +1386,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
@@ -1379,7 +1395,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
@@ -1388,7 +1404,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>78</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
@@ -1399,9 +1418,6 @@
       <c r="C48" t="s">
         <v>79</v>
       </c>
-      <c r="D48" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="6">
@@ -1417,9 +1433,6 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C50" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" s="6">
@@ -1444,6 +1457,12 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
+      <c r="C54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="6">
@@ -1454,7 +1473,7 @@
         <v>61</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.35">
@@ -1466,7 +1485,7 @@
         <v>62</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.35">
@@ -1478,7 +1497,7 @@
         <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.35">
@@ -1490,7 +1509,7 @@
         <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.35">
@@ -1502,7 +1521,7 @@
         <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.35">
@@ -1514,7 +1533,7 @@
         <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.35">
@@ -1526,7 +1545,7 @@
         <v>67</v>
       </c>
       <c r="D61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.35">
@@ -1538,7 +1557,7 @@
         <v>68</v>
       </c>
       <c r="D62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.35">
@@ -1550,7 +1569,7 @@
         <v>69</v>
       </c>
       <c r="D63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.35">
@@ -1562,7 +1581,7 @@
         <v>70</v>
       </c>
       <c r="D64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.35">
@@ -1574,7 +1593,7 @@
         <v>71</v>
       </c>
       <c r="D65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.35">
@@ -1586,7 +1605,7 @@
         <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.35">
@@ -1598,31 +1617,31 @@
         <v>73</v>
       </c>
       <c r="D67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B68" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B68:B71" si="1">B67+1</f>
         <v>66</v>
       </c>
       <c r="C68" t="s">
         <v>74</v>
       </c>
       <c r="D68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B69" s="6">
-        <f t="shared" ref="B69:B72" si="1">B68+1</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="C69" t="s">
         <v>75</v>
       </c>
       <c r="D69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.35">
@@ -1634,7 +1653,7 @@
         <v>76</v>
       </c>
       <c r="D70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.35">
@@ -1646,19 +1665,7 @@
         <v>77</v>
       </c>
       <c r="D71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B72" s="6">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="C72" t="s">
-        <v>78</v>
-      </c>
-      <c r="D72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1667,20 +1674,21 @@
     <hyperlink ref="C4" r:id="rId2" xr:uid="{11B451F4-05BC-42A1-80EB-4242A8537D3E}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{9F2B4896-6A92-43C3-90A8-01C4785E8E3D}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{0B7080EA-EFB6-4697-92E0-7C6C51429FAA}"/>
-    <hyperlink ref="C11" r:id="rId5" xr:uid="{DA60F144-0FAA-4EE6-B8FF-2AA9A77FC0B2}"/>
-    <hyperlink ref="C15" r:id="rId6" xr:uid="{80F3A431-FCD1-4749-BC3F-6F6CF41D202E}"/>
-    <hyperlink ref="C16" r:id="rId7" xr:uid="{1089EEA3-ECD8-4D62-96D8-AD0C91E4FF59}"/>
-    <hyperlink ref="C17" r:id="rId8" xr:uid="{89181273-63F7-4051-BD3D-F2E711F0F9AC}"/>
-    <hyperlink ref="C18" r:id="rId9" xr:uid="{A3566864-119C-4056-A95A-3F44EC9C7260}"/>
-    <hyperlink ref="C20" r:id="rId10" xr:uid="{94DBF269-9017-4440-AF9D-C3966428ABC5}"/>
-    <hyperlink ref="C25" r:id="rId11" xr:uid="{7D546171-7BCF-43CE-947B-C0BEDAB801CF}"/>
-    <hyperlink ref="C36" r:id="rId12" xr:uid="{C73214AB-98B0-497C-8C09-4B1CD8AF4C61}"/>
-    <hyperlink ref="C37" r:id="rId13" xr:uid="{5EE9F009-D393-4C47-B0F1-2E315E13F2B6}"/>
-    <hyperlink ref="C40" r:id="rId14" xr:uid="{393C21F9-BAA9-4398-B8AD-70656C748927}"/>
-    <hyperlink ref="C26" r:id="rId15" xr:uid="{3885F206-1C4C-4217-ABA8-F0F256EB014F}"/>
-    <hyperlink ref="C13" r:id="rId16" xr:uid="{8B931CCC-3957-47DF-B598-7C12F0DF3FE3}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{DA60F144-0FAA-4EE6-B8FF-2AA9A77FC0B2}"/>
+    <hyperlink ref="C14" r:id="rId6" xr:uid="{80F3A431-FCD1-4749-BC3F-6F6CF41D202E}"/>
+    <hyperlink ref="C15" r:id="rId7" xr:uid="{1089EEA3-ECD8-4D62-96D8-AD0C91E4FF59}"/>
+    <hyperlink ref="C16" r:id="rId8" xr:uid="{89181273-63F7-4051-BD3D-F2E711F0F9AC}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{A3566864-119C-4056-A95A-3F44EC9C7260}"/>
+    <hyperlink ref="C19" r:id="rId10" xr:uid="{94DBF269-9017-4440-AF9D-C3966428ABC5}"/>
+    <hyperlink ref="C24" r:id="rId11" xr:uid="{7D546171-7BCF-43CE-947B-C0BEDAB801CF}"/>
+    <hyperlink ref="C35" r:id="rId12" xr:uid="{C73214AB-98B0-497C-8C09-4B1CD8AF4C61}"/>
+    <hyperlink ref="C36" r:id="rId13" xr:uid="{5EE9F009-D393-4C47-B0F1-2E315E13F2B6}"/>
+    <hyperlink ref="C39" r:id="rId14" xr:uid="{393C21F9-BAA9-4398-B8AD-70656C748927}"/>
+    <hyperlink ref="C25" r:id="rId15" xr:uid="{3885F206-1C4C-4217-ABA8-F0F256EB014F}"/>
+    <hyperlink ref="C12" r:id="rId16" xr:uid="{8B931CCC-3957-47DF-B598-7C12F0DF3FE3}"/>
+    <hyperlink ref="C11" r:id="rId17" xr:uid="{29EBBDA6-AB70-4834-9E6E-2572419293BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C94CAC-A3A5-409C-ADDA-A6EBDF161BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A889333E-2BA4-422D-A8E4-E60B09146887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="141">
   <si>
     <t>Name</t>
   </si>
@@ -360,6 +360,105 @@
   </si>
   <si>
     <t>Irrigation</t>
+  </si>
+  <si>
+    <t>BASF</t>
+  </si>
+  <si>
+    <t>Arcadia Biosciences</t>
+  </si>
+  <si>
+    <t>Bioceres Crop Solutions</t>
+  </si>
+  <si>
+    <t>Cibus, Inc</t>
+  </si>
+  <si>
+    <t>CBUS</t>
+  </si>
+  <si>
+    <t>BIOX</t>
+  </si>
+  <si>
+    <t>RKDA</t>
+  </si>
+  <si>
+    <t>Edible Garden AG</t>
+  </si>
+  <si>
+    <t>EDBL</t>
+  </si>
+  <si>
+    <t>AgriForce Growing Systems</t>
+  </si>
+  <si>
+    <t>AGRI</t>
+  </si>
+  <si>
+    <t>BAS</t>
+  </si>
+  <si>
+    <t>UPL, Ltd</t>
+  </si>
+  <si>
+    <t>UPL</t>
+  </si>
+  <si>
+    <t>Bee Vectoring Technologies</t>
+  </si>
+  <si>
+    <t>BEE</t>
+  </si>
+  <si>
+    <t>Benson Hill</t>
+  </si>
+  <si>
+    <t>Indigo Ag</t>
+  </si>
+  <si>
+    <t>Biome Makers</t>
+  </si>
+  <si>
+    <t>Inari Agriculture</t>
+  </si>
+  <si>
+    <t>FYTO</t>
+  </si>
+  <si>
+    <t>5Metis</t>
+  </si>
+  <si>
+    <t>Bioheuris</t>
+  </si>
+  <si>
+    <t>Bioprime</t>
+  </si>
+  <si>
+    <t>Pivot Bio</t>
+  </si>
+  <si>
+    <t>Valent BioSciences</t>
+  </si>
+  <si>
+    <t>Bontera</t>
+  </si>
+  <si>
+    <t>Certis Biologicals</t>
+  </si>
+  <si>
+    <t>Moolec Science</t>
+  </si>
+  <si>
+    <t>Lallemand</t>
+  </si>
+  <si>
+    <t>Kula Bio</t>
+  </si>
+  <si>
+    <t>Oatley Group AB</t>
+  </si>
+  <si>
+    <t>OTLY</t>
   </si>
 </sst>
 </file>
@@ -436,7 +535,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -450,8 +549,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -734,23 +831,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AG71"/>
+  <dimension ref="B1:AG91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="2.90625" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.35">
@@ -766,10 +863,10 @@
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="1" t="s">
         <v>106</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -864,7 +961,7 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -882,13 +979,13 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B5" s="6">
-        <f t="shared" ref="B5:B67" si="0">B4+1</f>
+        <f t="shared" ref="B5:B8" si="0">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -900,7 +997,7 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -918,7 +1015,7 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -936,7 +1033,7 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -954,7 +1051,7 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -969,7 +1066,7 @@
       <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -987,7 +1084,7 @@
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
@@ -1016,7 +1113,7 @@
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B11:B75" si="1">B10+1</f>
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1028,7 +1125,7 @@
       <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="s">
@@ -1037,7 +1134,7 @@
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1049,13 +1146,13 @@
       <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C13" t="s">
@@ -1067,422 +1164,452 @@
         <f>B13+1</f>
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
+      <c r="C14" t="s">
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>27</v>
+      <c r="C15" t="s">
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>39</v>
+      <c r="C16" t="s">
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
-        <f t="shared" si="0"/>
+        <f>B16+1</f>
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
+      <c r="C17" t="s">
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C18" t="s">
-        <v>23</v>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>110</v>
+      </c>
+      <c r="D22" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C23" t="s">
-        <v>85</v>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>21</v>
+      <c r="C24" t="s">
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C27" t="s">
-        <v>103</v>
+      <c r="C27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C32" t="s">
-        <v>45</v>
+      <c r="C32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="C33" t="s">
-        <v>46</v>
+      <c r="C33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" t="s">
-        <v>16</v>
+      <c r="C35" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" t="s">
-        <v>18</v>
+      <c r="C36" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" t="s">
-        <v>37</v>
+      <c r="C39" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="C43" t="s">
-        <v>30</v>
+      <c r="C43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="C44" t="s">
-        <v>31</v>
+      <c r="C44" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="C45" t="s">
-        <v>32</v>
+      <c r="C45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="D46" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="C48" t="s">
-        <v>79</v>
+      <c r="C48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D56" t="s">
         <v>81</v>
@@ -1490,146 +1617,110 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B58" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
-      </c>
-      <c r="D58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B59" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B60" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
-      </c>
-      <c r="D60" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B61" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B62" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
-      </c>
-      <c r="D62" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B63" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
-      </c>
-      <c r="D63" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B64" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
-      </c>
-      <c r="D64" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B66" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>72</v>
-      </c>
-      <c r="D66" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B67" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>73</v>
-      </c>
-      <c r="D67" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B68" s="6">
-        <f t="shared" ref="B68:B71" si="1">B67+1</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>74</v>
-      </c>
-      <c r="D68" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.35">
@@ -1638,10 +1729,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>75</v>
-      </c>
-      <c r="D69" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.35">
@@ -1650,10 +1738,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>76</v>
-      </c>
-      <c r="D70" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.35">
@@ -1662,9 +1747,240 @@
         <v>69</v>
       </c>
       <c r="C71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B72" s="6">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B73" s="6">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B74" s="6">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B75" s="6">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B76" s="6">
+        <f t="shared" ref="B76:B91" si="2">B75+1</f>
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B77" s="6">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B78" s="6">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B79" s="6">
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="D71" t="s">
+      <c r="C79" t="s">
+        <v>65</v>
+      </c>
+      <c r="D79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B80" s="6">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>66</v>
+      </c>
+      <c r="D80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B81" s="6">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
+        <v>67</v>
+      </c>
+      <c r="D81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B82" s="6">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B83" s="6">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B84" s="6">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B85" s="6">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>71</v>
+      </c>
+      <c r="D85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B86" s="6">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B87" s="6">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>73</v>
+      </c>
+      <c r="D87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B88" s="6">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
+        <v>74</v>
+      </c>
+      <c r="D88" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B89" s="6">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
+        <v>75</v>
+      </c>
+      <c r="D89" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B90" s="6">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="C90" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B91" s="6">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>77</v>
+      </c>
+      <c r="D91" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1675,16 +1991,16 @@
     <hyperlink ref="C5" r:id="rId3" xr:uid="{9F2B4896-6A92-43C3-90A8-01C4785E8E3D}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{0B7080EA-EFB6-4697-92E0-7C6C51429FAA}"/>
     <hyperlink ref="C10" r:id="rId5" xr:uid="{DA60F144-0FAA-4EE6-B8FF-2AA9A77FC0B2}"/>
-    <hyperlink ref="C14" r:id="rId6" xr:uid="{80F3A431-FCD1-4749-BC3F-6F6CF41D202E}"/>
-    <hyperlink ref="C15" r:id="rId7" xr:uid="{1089EEA3-ECD8-4D62-96D8-AD0C91E4FF59}"/>
-    <hyperlink ref="C16" r:id="rId8" xr:uid="{89181273-63F7-4051-BD3D-F2E711F0F9AC}"/>
-    <hyperlink ref="C17" r:id="rId9" xr:uid="{A3566864-119C-4056-A95A-3F44EC9C7260}"/>
-    <hyperlink ref="C19" r:id="rId10" xr:uid="{94DBF269-9017-4440-AF9D-C3966428ABC5}"/>
-    <hyperlink ref="C24" r:id="rId11" xr:uid="{7D546171-7BCF-43CE-947B-C0BEDAB801CF}"/>
-    <hyperlink ref="C35" r:id="rId12" xr:uid="{C73214AB-98B0-497C-8C09-4B1CD8AF4C61}"/>
-    <hyperlink ref="C36" r:id="rId13" xr:uid="{5EE9F009-D393-4C47-B0F1-2E315E13F2B6}"/>
-    <hyperlink ref="C39" r:id="rId14" xr:uid="{393C21F9-BAA9-4398-B8AD-70656C748927}"/>
-    <hyperlink ref="C25" r:id="rId15" xr:uid="{3885F206-1C4C-4217-ABA8-F0F256EB014F}"/>
+    <hyperlink ref="C18" r:id="rId6" xr:uid="{80F3A431-FCD1-4749-BC3F-6F6CF41D202E}"/>
+    <hyperlink ref="C19" r:id="rId7" xr:uid="{1089EEA3-ECD8-4D62-96D8-AD0C91E4FF59}"/>
+    <hyperlink ref="C23" r:id="rId8" xr:uid="{89181273-63F7-4051-BD3D-F2E711F0F9AC}"/>
+    <hyperlink ref="C25" r:id="rId9" xr:uid="{A3566864-119C-4056-A95A-3F44EC9C7260}"/>
+    <hyperlink ref="C27" r:id="rId10" xr:uid="{94DBF269-9017-4440-AF9D-C3966428ABC5}"/>
+    <hyperlink ref="C32" r:id="rId11" xr:uid="{7D546171-7BCF-43CE-947B-C0BEDAB801CF}"/>
+    <hyperlink ref="C43" r:id="rId12" xr:uid="{C73214AB-98B0-497C-8C09-4B1CD8AF4C61}"/>
+    <hyperlink ref="C45" r:id="rId13" xr:uid="{5EE9F009-D393-4C47-B0F1-2E315E13F2B6}"/>
+    <hyperlink ref="C48" r:id="rId14" xr:uid="{393C21F9-BAA9-4398-B8AD-70656C748927}"/>
+    <hyperlink ref="C33" r:id="rId15" xr:uid="{3885F206-1C4C-4217-ABA8-F0F256EB014F}"/>
     <hyperlink ref="C12" r:id="rId16" xr:uid="{8B931CCC-3957-47DF-B598-7C12F0DF3FE3}"/>
     <hyperlink ref="C11" r:id="rId17" xr:uid="{29EBBDA6-AB70-4834-9E6E-2572419293BE}"/>
   </hyperlinks>

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A889333E-2BA4-422D-A8E4-E60B09146887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6868F95A-329A-4ADD-930D-93B8D914EA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7710" yWindow="0" windowWidth="11490" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -459,6 +459,18 @@
   </si>
   <si>
     <t>OTLY</t>
+  </si>
+  <si>
+    <t>Origin Agritech Ltd.</t>
+  </si>
+  <si>
+    <t>SEED</t>
+  </si>
+  <si>
+    <t>Farmmi Inc</t>
+  </si>
+  <si>
+    <t>FAMI</t>
   </si>
 </sst>
 </file>
@@ -831,13 +843,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AG91"/>
+  <dimension ref="B1:AG93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1113,7 +1125,7 @@
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
-        <f t="shared" ref="B11:B75" si="1">B10+1</f>
+        <f t="shared" ref="B11:B77" si="1">B10+1</f>
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1197,14 +1209,14 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
-        <f>B16+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
@@ -1212,11 +1224,11 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>26</v>
+      <c r="C18" t="s">
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
@@ -1225,10 +1237,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
@@ -1236,11 +1248,11 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C20" t="s">
-        <v>109</v>
+      <c r="C20" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
@@ -1249,10 +1261,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
@@ -1261,10 +1273,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
@@ -1272,11 +1284,11 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>39</v>
+      <c r="C23" t="s">
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
@@ -1284,11 +1296,11 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C24" t="s">
-        <v>122</v>
+      <c r="C24" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
@@ -1296,11 +1308,11 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>22</v>
+      <c r="C25" t="s">
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
@@ -1308,8 +1320,11 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C26" t="s">
-        <v>23</v>
+      <c r="C26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
@@ -1317,11 +1332,8 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
+      <c r="C27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
@@ -1329,11 +1341,11 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="C28" t="s">
-        <v>82</v>
+      <c r="C28" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
@@ -1342,7 +1354,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
@@ -1351,7 +1366,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
@@ -1360,7 +1375,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
@@ -1368,11 +1383,8 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" t="s">
-        <v>17</v>
+      <c r="C32" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
@@ -1381,10 +1393,10 @@
         <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
@@ -1392,8 +1404,11 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="C34" t="s">
-        <v>102</v>
+      <c r="C34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
@@ -1402,7 +1417,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
@@ -1411,7 +1426,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
@@ -1420,10 +1435,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
@@ -1432,7 +1444,10 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
@@ -1441,7 +1456,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
@@ -1450,7 +1465,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
@@ -1459,7 +1474,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
@@ -1468,7 +1483,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
@@ -1476,11 +1491,8 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" t="s">
-        <v>16</v>
+      <c r="C43" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
@@ -1489,10 +1501,10 @@
         <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
@@ -1501,10 +1513,10 @@
         <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
@@ -1512,11 +1524,11 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="C46" t="s">
-        <v>34</v>
+      <c r="C46" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
@@ -1525,7 +1537,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>143</v>
+      </c>
+      <c r="D47" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
@@ -1533,11 +1548,11 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>36</v>
+      <c r="C48" t="s">
+        <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
@@ -1546,7 +1561,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
@@ -1554,8 +1569,11 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="C50" t="s">
-        <v>28</v>
+      <c r="C50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
@@ -1564,7 +1582,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.35">
@@ -1573,7 +1591,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.35">
@@ -1582,7 +1600,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.35">
@@ -1591,7 +1609,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.35">
@@ -1600,7 +1618,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.35">
@@ -1609,10 +1627,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.35">
@@ -1621,7 +1636,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.35">
@@ -1630,7 +1645,10 @@
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="D58" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.35">
@@ -1639,7 +1657,7 @@
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.35">
@@ -1648,7 +1666,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.35">
@@ -1657,7 +1675,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.35">
@@ -1666,7 +1684,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.35">
@@ -1675,7 +1693,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.35">
@@ -1684,7 +1702,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.35">
@@ -1693,7 +1711,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.35">
@@ -1702,7 +1720,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.35">
@@ -1711,7 +1729,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.35">
@@ -1720,7 +1738,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.35">
@@ -1729,7 +1747,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.35">
@@ -1738,7 +1756,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.35">
@@ -1747,7 +1765,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.35">
@@ -1756,7 +1774,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.35">
@@ -1765,7 +1783,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.35">
@@ -1774,10 +1792,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>60</v>
-      </c>
-      <c r="D74" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.35">
@@ -1786,19 +1801,16 @@
         <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>61</v>
-      </c>
-      <c r="D75" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B76" s="6">
-        <f t="shared" ref="B76:B91" si="2">B75+1</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D76" t="s">
         <v>81</v>
@@ -1806,11 +1818,11 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B77" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D77" t="s">
         <v>81</v>
@@ -1818,11 +1830,11 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B78" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B78:B93" si="2">B77+1</f>
         <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D78" t="s">
         <v>81</v>
@@ -1834,7 +1846,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D79" t="s">
         <v>81</v>
@@ -1846,7 +1858,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D80" t="s">
         <v>81</v>
@@ -1858,7 +1870,7 @@
         <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D81" t="s">
         <v>81</v>
@@ -1870,7 +1882,7 @@
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D82" t="s">
         <v>81</v>
@@ -1882,7 +1894,7 @@
         <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D83" t="s">
         <v>81</v>
@@ -1894,7 +1906,7 @@
         <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D84" t="s">
         <v>81</v>
@@ -1906,7 +1918,7 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D85" t="s">
         <v>81</v>
@@ -1918,7 +1930,7 @@
         <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D86" t="s">
         <v>81</v>
@@ -1930,7 +1942,7 @@
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D87" t="s">
         <v>81</v>
@@ -1942,7 +1954,7 @@
         <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D88" t="s">
         <v>81</v>
@@ -1954,7 +1966,7 @@
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D89" t="s">
         <v>81</v>
@@ -1966,7 +1978,7 @@
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D90" t="s">
         <v>81</v>
@@ -1978,9 +1990,33 @@
         <v>89</v>
       </c>
       <c r="C91" t="s">
+        <v>75</v>
+      </c>
+      <c r="D91" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B92" s="6">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
+        <v>76</v>
+      </c>
+      <c r="D92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B93" s="6">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
         <v>77</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D93" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1991,16 +2027,16 @@
     <hyperlink ref="C5" r:id="rId3" xr:uid="{9F2B4896-6A92-43C3-90A8-01C4785E8E3D}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{0B7080EA-EFB6-4697-92E0-7C6C51429FAA}"/>
     <hyperlink ref="C10" r:id="rId5" xr:uid="{DA60F144-0FAA-4EE6-B8FF-2AA9A77FC0B2}"/>
-    <hyperlink ref="C18" r:id="rId6" xr:uid="{80F3A431-FCD1-4749-BC3F-6F6CF41D202E}"/>
-    <hyperlink ref="C19" r:id="rId7" xr:uid="{1089EEA3-ECD8-4D62-96D8-AD0C91E4FF59}"/>
-    <hyperlink ref="C23" r:id="rId8" xr:uid="{89181273-63F7-4051-BD3D-F2E711F0F9AC}"/>
-    <hyperlink ref="C25" r:id="rId9" xr:uid="{A3566864-119C-4056-A95A-3F44EC9C7260}"/>
-    <hyperlink ref="C27" r:id="rId10" xr:uid="{94DBF269-9017-4440-AF9D-C3966428ABC5}"/>
-    <hyperlink ref="C32" r:id="rId11" xr:uid="{7D546171-7BCF-43CE-947B-C0BEDAB801CF}"/>
-    <hyperlink ref="C43" r:id="rId12" xr:uid="{C73214AB-98B0-497C-8C09-4B1CD8AF4C61}"/>
-    <hyperlink ref="C45" r:id="rId13" xr:uid="{5EE9F009-D393-4C47-B0F1-2E315E13F2B6}"/>
-    <hyperlink ref="C48" r:id="rId14" xr:uid="{393C21F9-BAA9-4398-B8AD-70656C748927}"/>
-    <hyperlink ref="C33" r:id="rId15" xr:uid="{3885F206-1C4C-4217-ABA8-F0F256EB014F}"/>
+    <hyperlink ref="C19" r:id="rId6" xr:uid="{80F3A431-FCD1-4749-BC3F-6F6CF41D202E}"/>
+    <hyperlink ref="C20" r:id="rId7" xr:uid="{1089EEA3-ECD8-4D62-96D8-AD0C91E4FF59}"/>
+    <hyperlink ref="C24" r:id="rId8" xr:uid="{89181273-63F7-4051-BD3D-F2E711F0F9AC}"/>
+    <hyperlink ref="C26" r:id="rId9" xr:uid="{A3566864-119C-4056-A95A-3F44EC9C7260}"/>
+    <hyperlink ref="C28" r:id="rId10" xr:uid="{94DBF269-9017-4440-AF9D-C3966428ABC5}"/>
+    <hyperlink ref="C33" r:id="rId11" xr:uid="{7D546171-7BCF-43CE-947B-C0BEDAB801CF}"/>
+    <hyperlink ref="C44" r:id="rId12" xr:uid="{C73214AB-98B0-497C-8C09-4B1CD8AF4C61}"/>
+    <hyperlink ref="C46" r:id="rId13" xr:uid="{5EE9F009-D393-4C47-B0F1-2E315E13F2B6}"/>
+    <hyperlink ref="C50" r:id="rId14" xr:uid="{393C21F9-BAA9-4398-B8AD-70656C748927}"/>
+    <hyperlink ref="C34" r:id="rId15" xr:uid="{3885F206-1C4C-4217-ABA8-F0F256EB014F}"/>
     <hyperlink ref="C12" r:id="rId16" xr:uid="{8B931CCC-3957-47DF-B598-7C12F0DF3FE3}"/>
     <hyperlink ref="C11" r:id="rId17" xr:uid="{29EBBDA6-AB70-4834-9E6E-2572419293BE}"/>
   </hyperlinks>

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6868F95A-329A-4ADD-930D-93B8D914EA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6A461F-FE94-450A-AB57-1882FC943AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7710" yWindow="0" windowWidth="11490" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="610" yWindow="720" windowWidth="16430" windowHeight="18320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="146">
   <si>
     <t>Name</t>
   </si>
@@ -471,6 +471,9 @@
   </si>
   <si>
     <t>FAMI</t>
+  </si>
+  <si>
+    <t>BUI</t>
   </si>
 </sst>
 </file>
@@ -849,7 +852,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1143,6 +1146,26 @@
       <c r="G11" t="s">
         <v>107</v>
       </c>
+      <c r="H11">
+        <v>367.37</v>
+      </c>
+      <c r="I11" s="7">
+        <v>20070</v>
+      </c>
+      <c r="J11">
+        <v>7373</v>
+      </c>
+      <c r="K11">
+        <f>-184+731</f>
+        <v>547</v>
+      </c>
+      <c r="L11" s="7">
+        <f>+J11+K11</f>
+        <v>7920</v>
+      </c>
+      <c r="M11" s="8">
+        <v>45874</v>
+      </c>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
@@ -1169,6 +1192,9 @@
       </c>
       <c r="C13" t="s">
         <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.35">

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6A461F-FE94-450A-AB57-1882FC943AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF14E0B-BAFD-481B-8040-A36DC5136D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="610" yWindow="720" windowWidth="16430" windowHeight="18320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="160">
   <si>
     <t>Name</t>
   </si>
@@ -474,6 +474,48 @@
   </si>
   <si>
     <t>BUI</t>
+  </si>
+  <si>
+    <t>SpartanNash</t>
+  </si>
+  <si>
+    <t>SPTN</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Advanced Flower Capital</t>
+  </si>
+  <si>
+    <t>AFCG</t>
+  </si>
+  <si>
+    <t>Lending</t>
+  </si>
+  <si>
+    <t>CRE</t>
+  </si>
+  <si>
+    <t>Cannabis</t>
+  </si>
+  <si>
+    <t>XXII</t>
+  </si>
+  <si>
+    <t>22nd Century Group</t>
+  </si>
+  <si>
+    <t>Biotech</t>
+  </si>
+  <si>
+    <t>Tobacco</t>
   </si>
 </sst>
 </file>
@@ -846,13 +888,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AG93"/>
+  <dimension ref="B1:AG96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1128,7 +1170,7 @@
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
-        <f t="shared" ref="B11:B77" si="1">B10+1</f>
+        <f t="shared" ref="B11:B79" si="1">B10+1</f>
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1227,10 +1269,19 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>156</v>
+      </c>
+      <c r="E16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
@@ -1239,10 +1290,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
@@ -1251,10 +1302,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
@@ -1262,11 +1313,11 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>26</v>
+      <c r="C19" t="s">
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
@@ -1275,10 +1326,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
@@ -1286,11 +1337,11 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C21" t="s">
-        <v>109</v>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
@@ -1299,10 +1350,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
@@ -1311,10 +1362,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
@@ -1322,11 +1373,11 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>39</v>
+      <c r="C24" t="s">
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
@@ -1334,11 +1385,11 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C25" t="s">
-        <v>122</v>
+      <c r="C25" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
@@ -1346,11 +1397,11 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>22</v>
+      <c r="C26" t="s">
+        <v>122</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
@@ -1358,8 +1409,11 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C27" t="s">
-        <v>23</v>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
@@ -1367,11 +1421,8 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" t="s">
-        <v>25</v>
+      <c r="C28" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
@@ -1379,11 +1430,11 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C29" t="s">
-        <v>82</v>
+      <c r="C29" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
@@ -1392,7 +1443,10 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
@@ -1401,7 +1455,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
@@ -1410,7 +1464,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
@@ -1418,11 +1472,8 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" t="s">
-        <v>17</v>
+      <c r="C33" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
@@ -1431,10 +1482,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
@@ -1442,8 +1493,11 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="C35" t="s">
-        <v>102</v>
+      <c r="C35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
@@ -1452,7 +1506,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
@@ -1461,7 +1515,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
@@ -1470,10 +1524,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
@@ -1482,7 +1533,10 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
@@ -1491,7 +1545,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
@@ -1500,7 +1554,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
@@ -1509,7 +1563,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
@@ -1518,7 +1572,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
@@ -1526,11 +1580,8 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" t="s">
-        <v>16</v>
+      <c r="C44" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
@@ -1539,10 +1590,10 @@
         <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
@@ -1551,10 +1602,10 @@
         <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
@@ -1562,11 +1613,11 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="C47" t="s">
-        <v>143</v>
+      <c r="C47" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
@@ -1575,160 +1626,175 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B49" s="6">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
         <v>34</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="6">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="C49" t="s">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B50" s="6">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="6">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="C50" s="2" t="s">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B51" s="6">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="6">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="C51" t="s">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B52" s="6">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B52" s="6">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="C52" t="s">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B53" s="6">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B54" s="6">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B53" s="6">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="C53" t="s">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B55" s="6">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B54" s="6">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="C54" t="s">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B56" s="6">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B55" s="6">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="C55" t="s">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B57" s="6">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B56" s="6">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="C56" t="s">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B58" s="6">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B57" s="6">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="C57" t="s">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B59" s="6">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B58" s="6">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="C58" t="s">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B60" s="6">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
         <v>78</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D60" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B59" s="6">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="C59" t="s">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B61" s="6">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B60" s="6">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="C60" t="s">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B62" s="6">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C62" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B61" s="6">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="C61" t="s">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B63" s="6">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B62" s="6">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="C62" t="s">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B64" s="6">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="C64" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B63" s="6">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="C63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B64" s="6">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="C64" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.35">
@@ -1737,7 +1803,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.35">
@@ -1746,7 +1812,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.35">
@@ -1755,7 +1821,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.35">
@@ -1764,7 +1830,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.35">
@@ -1773,7 +1839,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.35">
@@ -1782,7 +1848,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.35">
@@ -1791,7 +1857,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.35">
@@ -1800,7 +1866,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.35">
@@ -1809,7 +1875,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.35">
@@ -1818,7 +1884,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.35">
@@ -1827,7 +1893,7 @@
         <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.35">
@@ -1836,10 +1902,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>60</v>
-      </c>
-      <c r="D76" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.35">
@@ -1848,19 +1911,16 @@
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>61</v>
-      </c>
-      <c r="D77" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B78" s="6">
-        <f t="shared" ref="B78:B93" si="2">B77+1</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D78" t="s">
         <v>81</v>
@@ -1868,11 +1928,11 @@
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B79" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D79" t="s">
         <v>81</v>
@@ -1880,170 +1940,215 @@
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B80" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B80:B96" si="2">B79+1</f>
         <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D80" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B81" s="6">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D81" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B82" s="6">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B83" s="6">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B84" s="6">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D84" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B85" s="6">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D85" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B86" s="6">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D86" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B87" s="6">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D87" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B88" s="6">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D88" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B89" s="6">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D89" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B90" s="6">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D90" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B91" s="6">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D91" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B92" s="6">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D92" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B93" s="6">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D93" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B94" s="6">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>76</v>
+      </c>
+      <c r="D94" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B95" s="6">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D95" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B96" s="6">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
+        <v>151</v>
+      </c>
+      <c r="D96" t="s">
+        <v>152</v>
+      </c>
+      <c r="E96" t="s">
+        <v>153</v>
+      </c>
+      <c r="F96" t="s">
+        <v>154</v>
+      </c>
+      <c r="G96" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2053,16 +2158,16 @@
     <hyperlink ref="C5" r:id="rId3" xr:uid="{9F2B4896-6A92-43C3-90A8-01C4785E8E3D}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{0B7080EA-EFB6-4697-92E0-7C6C51429FAA}"/>
     <hyperlink ref="C10" r:id="rId5" xr:uid="{DA60F144-0FAA-4EE6-B8FF-2AA9A77FC0B2}"/>
-    <hyperlink ref="C19" r:id="rId6" xr:uid="{80F3A431-FCD1-4749-BC3F-6F6CF41D202E}"/>
-    <hyperlink ref="C20" r:id="rId7" xr:uid="{1089EEA3-ECD8-4D62-96D8-AD0C91E4FF59}"/>
-    <hyperlink ref="C24" r:id="rId8" xr:uid="{89181273-63F7-4051-BD3D-F2E711F0F9AC}"/>
-    <hyperlink ref="C26" r:id="rId9" xr:uid="{A3566864-119C-4056-A95A-3F44EC9C7260}"/>
-    <hyperlink ref="C28" r:id="rId10" xr:uid="{94DBF269-9017-4440-AF9D-C3966428ABC5}"/>
-    <hyperlink ref="C33" r:id="rId11" xr:uid="{7D546171-7BCF-43CE-947B-C0BEDAB801CF}"/>
-    <hyperlink ref="C44" r:id="rId12" xr:uid="{C73214AB-98B0-497C-8C09-4B1CD8AF4C61}"/>
-    <hyperlink ref="C46" r:id="rId13" xr:uid="{5EE9F009-D393-4C47-B0F1-2E315E13F2B6}"/>
-    <hyperlink ref="C50" r:id="rId14" xr:uid="{393C21F9-BAA9-4398-B8AD-70656C748927}"/>
-    <hyperlink ref="C34" r:id="rId15" xr:uid="{3885F206-1C4C-4217-ABA8-F0F256EB014F}"/>
+    <hyperlink ref="C20" r:id="rId6" xr:uid="{80F3A431-FCD1-4749-BC3F-6F6CF41D202E}"/>
+    <hyperlink ref="C21" r:id="rId7" xr:uid="{1089EEA3-ECD8-4D62-96D8-AD0C91E4FF59}"/>
+    <hyperlink ref="C25" r:id="rId8" xr:uid="{89181273-63F7-4051-BD3D-F2E711F0F9AC}"/>
+    <hyperlink ref="C27" r:id="rId9" xr:uid="{A3566864-119C-4056-A95A-3F44EC9C7260}"/>
+    <hyperlink ref="C29" r:id="rId10" xr:uid="{94DBF269-9017-4440-AF9D-C3966428ABC5}"/>
+    <hyperlink ref="C34" r:id="rId11" xr:uid="{7D546171-7BCF-43CE-947B-C0BEDAB801CF}"/>
+    <hyperlink ref="C45" r:id="rId12" xr:uid="{C73214AB-98B0-497C-8C09-4B1CD8AF4C61}"/>
+    <hyperlink ref="C47" r:id="rId13" xr:uid="{5EE9F009-D393-4C47-B0F1-2E315E13F2B6}"/>
+    <hyperlink ref="C51" r:id="rId14" xr:uid="{393C21F9-BAA9-4398-B8AD-70656C748927}"/>
+    <hyperlink ref="C35" r:id="rId15" xr:uid="{3885F206-1C4C-4217-ABA8-F0F256EB014F}"/>
     <hyperlink ref="C12" r:id="rId16" xr:uid="{8B931CCC-3957-47DF-B598-7C12F0DF3FE3}"/>
     <hyperlink ref="C11" r:id="rId17" xr:uid="{29EBBDA6-AB70-4834-9E6E-2572419293BE}"/>
   </hyperlinks>

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF14E0B-BAFD-481B-8040-A36DC5136D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568E879D-4312-4CCD-BA26-87E539208C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="0" windowWidth="18700" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="164">
   <si>
     <t>Name</t>
   </si>
@@ -516,6 +516,18 @@
   </si>
   <si>
     <t>Tobacco</t>
+  </si>
+  <si>
+    <t>Bitcoin</t>
+  </si>
+  <si>
+    <t>Grain</t>
+  </si>
+  <si>
+    <t>Veggies</t>
+  </si>
+  <si>
+    <t>Aldi</t>
   </si>
 </sst>
 </file>
@@ -888,13 +900,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AG96"/>
+  <dimension ref="B1:AG97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J55" sqref="J55"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1170,7 +1182,7 @@
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
-        <f t="shared" ref="B11:B79" si="1">B10+1</f>
+        <f t="shared" ref="B11:B80" si="1">B10+1</f>
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1250,6 +1262,15 @@
       <c r="D14" t="s">
         <v>118</v>
       </c>
+      <c r="E14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
@@ -1556,6 +1577,9 @@
       <c r="C41" t="s">
         <v>44</v>
       </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" s="6">
@@ -1701,7 +1725,10 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>163</v>
+      </c>
+      <c r="D54" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.35">
@@ -1710,7 +1737,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.35">
@@ -1719,7 +1746,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.35">
@@ -1728,7 +1755,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.35">
@@ -1737,7 +1764,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.35">
@@ -1746,7 +1773,7 @@
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.35">
@@ -1755,10 +1782,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.35">
@@ -1767,7 +1791,10 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="D61" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.35">
@@ -1776,7 +1803,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.35">
@@ -1785,7 +1812,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.35">
@@ -1794,7 +1821,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.35">
@@ -1803,7 +1830,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.35">
@@ -1812,7 +1839,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.35">
@@ -1821,7 +1848,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.35">
@@ -1830,7 +1857,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.35">
@@ -1839,7 +1866,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.35">
@@ -1848,7 +1875,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.35">
@@ -1857,7 +1884,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.35">
@@ -1866,7 +1893,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.35">
@@ -1875,7 +1902,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.35">
@@ -1884,7 +1911,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.35">
@@ -1893,7 +1920,7 @@
         <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.35">
@@ -1902,7 +1929,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.35">
@@ -1911,7 +1938,7 @@
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.35">
@@ -1920,10 +1947,7 @@
         <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>60</v>
-      </c>
-      <c r="D78" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.35">
@@ -1932,7 +1956,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D79" t="s">
         <v>81</v>
@@ -1940,214 +1964,226 @@
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B80" s="6">
-        <f t="shared" ref="B80:B96" si="2">B79+1</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="C80" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B81" s="6">
+        <f t="shared" ref="B81:B97" si="2">B80+1</f>
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
         <v>62</v>
       </c>
-      <c r="D80" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B81" s="6">
-        <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="C81" t="s">
-        <v>63</v>
-      </c>
       <c r="D81" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B82" s="6">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B83" s="6">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B84" s="6">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D84" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B85" s="6">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D85" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B86" s="6">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D86" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B87" s="6">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D87" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B88" s="6">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D88" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B89" s="6">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D89" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B90" s="6">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D90" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B91" s="6">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D91" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B92" s="6">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D92" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B93" s="6">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D93" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B94" s="6">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D94" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B95" s="6">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D95" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B96" s="6">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="C96" t="s">
+        <v>77</v>
+      </c>
+      <c r="D96" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B97" s="6">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="C97" t="s">
         <v>151</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D97" t="s">
         <v>152</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E97" t="s">
         <v>153</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F97" t="s">
         <v>154</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G97" t="s">
         <v>155</v>
       </c>
     </row>

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568E879D-4312-4CCD-BA26-87E539208C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7EE95A-5811-423F-8424-D492A01C45DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="0" windowWidth="18700" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="205">
   <si>
     <t>Name</t>
   </si>
@@ -528,6 +528,129 @@
   </si>
   <si>
     <t>Aldi</t>
+  </si>
+  <si>
+    <t>BellRing Brands</t>
+  </si>
+  <si>
+    <t>BRBR</t>
+  </si>
+  <si>
+    <t>The Hain Celestial Group, Inc</t>
+  </si>
+  <si>
+    <t>HAIN</t>
+  </si>
+  <si>
+    <t>Mondelez International, Inc.</t>
+  </si>
+  <si>
+    <t>MDLZ</t>
+  </si>
+  <si>
+    <t>Nomad Foods, Ltd</t>
+  </si>
+  <si>
+    <t>NOMD</t>
+  </si>
+  <si>
+    <t>The Simply Good Foods Company</t>
+  </si>
+  <si>
+    <t>SMPL</t>
+  </si>
+  <si>
+    <t>B&amp;G Foods, Inc</t>
+  </si>
+  <si>
+    <t>BGS</t>
+  </si>
+  <si>
+    <t>The J.M. Smucker Company</t>
+  </si>
+  <si>
+    <t>McCormick &amp; Company</t>
+  </si>
+  <si>
+    <t>Brinker International</t>
+  </si>
+  <si>
+    <t>EAT</t>
+  </si>
+  <si>
+    <t>Cheesecake Factory</t>
+  </si>
+  <si>
+    <t>Cava</t>
+  </si>
+  <si>
+    <t>CMG</t>
+  </si>
+  <si>
+    <t>CAVA</t>
+  </si>
+  <si>
+    <t>McDonald's</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>Wendy's</t>
+  </si>
+  <si>
+    <t>Darden Restaurants</t>
+  </si>
+  <si>
+    <t>Chipotle Mexican Grill</t>
+  </si>
+  <si>
+    <t>Bloomin' Brands</t>
+  </si>
+  <si>
+    <t>BLMN</t>
+  </si>
+  <si>
+    <t>DRI</t>
+  </si>
+  <si>
+    <t>CAKE</t>
+  </si>
+  <si>
+    <t>WEN</t>
+  </si>
+  <si>
+    <t>Texas Roadhouse</t>
+  </si>
+  <si>
+    <t>TXRH</t>
+  </si>
+  <si>
+    <t>DoorDash Inc</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
+    <t>Sweetgreen</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Fast food</t>
+  </si>
+  <si>
+    <t>Casual Dining</t>
+  </si>
+  <si>
+    <t>Booking Holdings Inc. (OpenTable)</t>
+  </si>
+  <si>
+    <t>BKNG</t>
   </si>
 </sst>
 </file>
@@ -900,19 +1023,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AG97"/>
+  <dimension ref="B1:AG117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="2.90625" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6328125" bestFit="1" customWidth="1"/>
@@ -1182,7 +1305,7 @@
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
-        <f t="shared" ref="B11:B80" si="1">B10+1</f>
+        <f t="shared" ref="B11:B100" si="1">B10+1</f>
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1699,288 +1822,408 @@
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B53" s="6">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
+      <c r="B53" s="6"/>
       <c r="C53" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="D53" t="s">
-        <v>147</v>
-      </c>
-      <c r="E53" t="s">
-        <v>148</v>
-      </c>
-      <c r="F53" t="s">
-        <v>149</v>
-      </c>
-      <c r="G53" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B54" s="6">
-        <f t="shared" si="1"/>
-        <v>52</v>
+        <f>B52+1</f>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>179</v>
+      </c>
+      <c r="E54" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" t="s">
+        <v>200</v>
+      </c>
+      <c r="G54" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B55" s="6">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>180</v>
+      </c>
+      <c r="D55" t="s">
+        <v>192</v>
+      </c>
+      <c r="E55" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" t="s">
+        <v>200</v>
+      </c>
+      <c r="G55" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B56" s="6">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>181</v>
+      </c>
+      <c r="D56" t="s">
+        <v>183</v>
+      </c>
+      <c r="E56" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B57" s="6">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>188</v>
+      </c>
+      <c r="D57" t="s">
+        <v>182</v>
+      </c>
+      <c r="E57" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" t="s">
+        <v>200</v>
+      </c>
+      <c r="G57" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B58" s="6">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>184</v>
+      </c>
+      <c r="D58" t="s">
+        <v>185</v>
+      </c>
+      <c r="E58" t="s">
+        <v>148</v>
+      </c>
+      <c r="F58" t="s">
+        <v>200</v>
+      </c>
+      <c r="G58" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B59" s="6">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>186</v>
+      </c>
+      <c r="D59" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59" t="s">
+        <v>200</v>
+      </c>
+      <c r="G59" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B60" s="6">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>187</v>
+      </c>
+      <c r="D60" t="s">
+        <v>191</v>
+      </c>
+      <c r="E60" t="s">
+        <v>148</v>
+      </c>
+      <c r="F60" t="s">
+        <v>200</v>
+      </c>
+      <c r="G60" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B61" s="6">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="D61" t="s">
-        <v>81</v>
+        <v>190</v>
+      </c>
+      <c r="E61" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" t="s">
+        <v>200</v>
+      </c>
+      <c r="G61" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B62" s="6">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>79</v>
+        <v>194</v>
+      </c>
+      <c r="D62" t="s">
+        <v>195</v>
+      </c>
+      <c r="E62" t="s">
+        <v>148</v>
+      </c>
+      <c r="F62" t="s">
+        <v>200</v>
+      </c>
+      <c r="G62" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B63" s="6">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>146</v>
+      </c>
+      <c r="D63" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63" t="s">
+        <v>149</v>
+      </c>
+      <c r="G63" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B64" s="6">
-        <f t="shared" si="1"/>
-        <v>62</v>
+        <f>B63+1</f>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>138</v>
+        <v>196</v>
+      </c>
+      <c r="D64" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65" s="6">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
+        <v>163</v>
+      </c>
+      <c r="D65" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B66" s="6">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
+        <v>198</v>
+      </c>
+      <c r="D66" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B67" s="6">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B68" s="6">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B69" s="6">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>133</v>
+        <v>164</v>
+      </c>
+      <c r="D69" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B70" s="6">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>132</v>
+        <v>166</v>
+      </c>
+      <c r="D70" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B71" s="6">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>131</v>
+        <v>168</v>
+      </c>
+      <c r="D71" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B72" s="6">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" t="s">
-        <v>130</v>
+        <v>170</v>
+      </c>
+      <c r="D72" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B73" s="6">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>129</v>
+        <v>172</v>
+      </c>
+      <c r="D73" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B74" s="6">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>128</v>
+        <v>174</v>
+      </c>
+      <c r="D74" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B75" s="6">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B76" s="6">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B77" s="6">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B78" s="6">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B79" s="6">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" t="s">
-        <v>60</v>
-      </c>
-      <c r="D79" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B80" s="6">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" t="s">
-        <v>61</v>
-      </c>
-      <c r="D80" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B81" s="6">
-        <f t="shared" ref="B81:B97" si="2">B80+1</f>
-        <v>79</v>
+        <f t="shared" si="1"/>
+        <v>78</v>
       </c>
       <c r="C81" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D81" t="s">
         <v>81</v>
@@ -1988,202 +2231,391 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B82" s="6">
-        <f t="shared" si="2"/>
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>79</v>
       </c>
       <c r="C82" t="s">
-        <v>63</v>
-      </c>
-      <c r="D82" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B83" s="6">
-        <f t="shared" si="2"/>
-        <v>81</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>64</v>
-      </c>
-      <c r="D83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B84" s="6">
-        <f t="shared" si="2"/>
-        <v>82</v>
+        <f t="shared" si="1"/>
+        <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>65</v>
-      </c>
-      <c r="D84" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B85" s="6">
-        <f t="shared" si="2"/>
-        <v>83</v>
+        <f t="shared" si="1"/>
+        <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>66</v>
-      </c>
-      <c r="D85" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B86" s="6">
-        <f t="shared" si="2"/>
-        <v>84</v>
+        <f t="shared" si="1"/>
+        <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>67</v>
-      </c>
-      <c r="D86" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B87" s="6">
-        <f t="shared" si="2"/>
-        <v>85</v>
+        <f t="shared" si="1"/>
+        <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>68</v>
-      </c>
-      <c r="D87" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B88" s="6">
-        <f t="shared" si="2"/>
-        <v>86</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="C88" t="s">
-        <v>69</v>
-      </c>
-      <c r="D88" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B89" s="6">
-        <f t="shared" si="2"/>
-        <v>87</v>
+        <f t="shared" si="1"/>
+        <v>86</v>
       </c>
       <c r="C89" t="s">
-        <v>70</v>
-      </c>
-      <c r="D89" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B90" s="6">
-        <f t="shared" si="2"/>
-        <v>88</v>
+        <f t="shared" si="1"/>
+        <v>87</v>
       </c>
       <c r="C90" t="s">
-        <v>71</v>
-      </c>
-      <c r="D90" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B91" s="6">
-        <f t="shared" si="2"/>
-        <v>89</v>
+        <f t="shared" si="1"/>
+        <v>88</v>
       </c>
       <c r="C91" t="s">
-        <v>72</v>
-      </c>
-      <c r="D91" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B92" s="6">
-        <f t="shared" si="2"/>
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>89</v>
       </c>
       <c r="C92" t="s">
-        <v>73</v>
-      </c>
-      <c r="D92" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B93" s="6">
-        <f t="shared" si="2"/>
-        <v>91</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="C93" t="s">
-        <v>74</v>
-      </c>
-      <c r="D93" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B94" s="6">
-        <f t="shared" si="2"/>
-        <v>92</v>
+        <f t="shared" si="1"/>
+        <v>91</v>
       </c>
       <c r="C94" t="s">
-        <v>75</v>
-      </c>
-      <c r="D94" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B95" s="6">
-        <f t="shared" si="2"/>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>76</v>
-      </c>
-      <c r="D95" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B96" s="6">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="C96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B97" s="6">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="C97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B98" s="6">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="C98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B99" s="6">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="C99" t="s">
+        <v>60</v>
+      </c>
+      <c r="D99" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B100" s="6">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="C100" t="s">
+        <v>61</v>
+      </c>
+      <c r="D100" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B101" s="6">
+        <f t="shared" ref="B101:B117" si="2">B100+1</f>
+        <v>98</v>
+      </c>
+      <c r="C101" t="s">
+        <v>62</v>
+      </c>
+      <c r="D101" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B102" s="6">
         <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="C96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B103" s="6">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="C103" t="s">
+        <v>64</v>
+      </c>
+      <c r="D103" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B104" s="6">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="C104" t="s">
+        <v>65</v>
+      </c>
+      <c r="D104" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B105" s="6">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="C105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D105" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B106" s="6">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="C106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D106" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B107" s="6">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B108" s="6">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="C108" t="s">
+        <v>69</v>
+      </c>
+      <c r="D108" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B109" s="6">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="C109" t="s">
+        <v>70</v>
+      </c>
+      <c r="D109" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B110" s="6">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="C110" t="s">
+        <v>71</v>
+      </c>
+      <c r="D110" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B111" s="6">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="C111" t="s">
+        <v>72</v>
+      </c>
+      <c r="D111" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B112" s="6">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="C112" t="s">
+        <v>73</v>
+      </c>
+      <c r="D112" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B113" s="6">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="C113" t="s">
+        <v>74</v>
+      </c>
+      <c r="D113" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B114" s="6">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="C114" t="s">
+        <v>75</v>
+      </c>
+      <c r="D114" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B115" s="6">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="C115" t="s">
+        <v>76</v>
+      </c>
+      <c r="D115" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B116" s="6">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="C116" t="s">
         <v>77</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D116" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B97" s="6">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B117" s="6">
         <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="C97" t="s">
+        <v>114</v>
+      </c>
+      <c r="C117" t="s">
         <v>151</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D117" t="s">
         <v>152</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E117" t="s">
         <v>153</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F117" t="s">
         <v>154</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G117" t="s">
         <v>155</v>
       </c>
     </row>

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7EE95A-5811-423F-8424-D492A01C45DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EC4169-228A-475B-BE9D-EE4A7FFFD61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="238">
   <si>
     <t>Name</t>
   </si>
@@ -161,9 +161,6 @@
     <t>BG</t>
   </si>
   <si>
-    <t>Nutrien Ag Solutions</t>
-  </si>
-  <si>
     <t>Helena Agri-Enterprises</t>
   </si>
   <si>
@@ -651,6 +648,108 @@
   </si>
   <si>
     <t>BKNG</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>Crop Protection</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Greenhouse</t>
+  </si>
+  <si>
+    <t>Hemp</t>
+  </si>
+  <si>
+    <t>Ingredients</t>
+  </si>
+  <si>
+    <t>non-GMO</t>
+  </si>
+  <si>
+    <t>Gene Editing</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Production Farm</t>
+  </si>
+  <si>
+    <t>Dairy</t>
+  </si>
+  <si>
+    <t>Elemental Enzymes</t>
+  </si>
+  <si>
+    <t>Citrus</t>
+  </si>
+  <si>
+    <t>Fundecitrus</t>
+  </si>
+  <si>
+    <t>Ideelab</t>
+  </si>
+  <si>
+    <t>Fertilizer</t>
+  </si>
+  <si>
+    <t>Biologicals</t>
+  </si>
+  <si>
+    <t>Inorganic</t>
+  </si>
+  <si>
+    <t>Crop Nutrition</t>
+  </si>
+  <si>
+    <t>Pollination</t>
+  </si>
+  <si>
+    <t>Syngenta</t>
+  </si>
+  <si>
+    <t>Ohalo Genetics</t>
+  </si>
+  <si>
+    <t>Sakata Seeds Corporation</t>
+  </si>
+  <si>
+    <t>Groupe Limagrain</t>
+  </si>
+  <si>
+    <t>Seeds</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>Horticulture</t>
+  </si>
+  <si>
+    <t>Rallis India Limited</t>
+  </si>
+  <si>
+    <t>Eurofins Scientific</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific</t>
+  </si>
+  <si>
+    <t>Yield Systems</t>
+  </si>
+  <si>
+    <t>seedalive GmbH</t>
   </si>
 </sst>
 </file>
@@ -1023,13 +1122,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AG117"/>
+  <dimension ref="B1:AG129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E51" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1059,43 +1158,43 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="T2" s="5">
         <v>2022</v>
@@ -1134,10 +1233,10 @@
         <v>2027</v>
       </c>
       <c r="AF2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG2" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.35">
@@ -1145,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1177,7 +1276,7 @@
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B5" s="6">
-        <f t="shared" ref="B5:B8" si="0">B4+1</f>
+        <f t="shared" ref="B5:B68" si="0">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1217,10 +1316,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
         <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -1235,10 +1334,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
         <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1249,11 +1348,11 @@
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
-        <f>B8+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -1264,11 +1363,11 @@
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
-        <f>B9+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1280,7 +1379,7 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H10">
         <v>143.75</v>
@@ -1305,14 +1404,14 @@
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
-        <f t="shared" ref="B11:B100" si="1">B10+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
         <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -1321,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H11">
         <v>367.37</v>
@@ -1346,1277 +1445,1577 @@
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
         <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
-        <f>B13+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
         <v>117</v>
       </c>
-      <c r="D14" t="s">
-        <v>118</v>
-      </c>
       <c r="E14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" t="s">
         <v>160</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>161</v>
-      </c>
-      <c r="G14" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
         <v>115</v>
       </c>
-      <c r="D15" t="s">
-        <v>116</v>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" t="s">
         <v>157</v>
       </c>
-      <c r="D16" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>158</v>
       </c>
-      <c r="F16" t="s">
-        <v>159</v>
-      </c>
       <c r="G16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" t="s">
+        <v>212</v>
+      </c>
+      <c r="G17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" t="s">
+        <v>231</v>
+      </c>
+      <c r="F18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" t="s">
+        <v>229</v>
+      </c>
+      <c r="G19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B26" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B27" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B28" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
         <v>120</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B29" s="6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B30" s="6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B31" s="6">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>225</v>
+      </c>
+      <c r="E31" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" t="s">
+        <v>204</v>
+      </c>
+      <c r="G31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B32" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" t="s">
+        <v>205</v>
+      </c>
+      <c r="G32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" t="s">
+        <v>205</v>
+      </c>
+      <c r="G33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" t="s">
+        <v>209</v>
+      </c>
+      <c r="G34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" t="s">
+        <v>211</v>
+      </c>
+      <c r="G35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" t="s">
+        <v>204</v>
+      </c>
+      <c r="F36" t="s">
+        <v>205</v>
+      </c>
+      <c r="G36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>216</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" t="s">
+        <v>206</v>
+      </c>
+      <c r="G37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B38" s="6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" t="s">
+        <v>157</v>
+      </c>
+      <c r="F38" t="s">
+        <v>217</v>
+      </c>
+      <c r="G38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B39" s="6">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B40" s="6">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="6">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="6">
-        <f t="shared" si="1"/>
+      <c r="D40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" t="s">
+        <v>205</v>
+      </c>
+      <c r="F40" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B41" s="6">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="6">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="6">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="6">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="6">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="6">
-        <f t="shared" si="1"/>
+      <c r="E41" t="s">
+        <v>220</v>
+      </c>
+      <c r="F41" t="s">
+        <v>205</v>
+      </c>
+      <c r="G41" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B42" s="6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" t="s">
+        <v>220</v>
+      </c>
+      <c r="F42" t="s">
+        <v>221</v>
+      </c>
+      <c r="G42" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B43" s="6">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" t="s">
+        <v>220</v>
+      </c>
+      <c r="F43" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B44" s="6">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B45" s="6">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B46" s="6">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="6">
-        <f t="shared" si="1"/>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B47" s="6">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="6">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B48" s="6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="6">
-        <f t="shared" si="1"/>
+      <c r="D48" t="s">
         <v>25</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="6">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="6">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="6">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="6">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="6">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="6">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="6">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="6">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="6">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="C36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="6">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="6">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="C38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="6">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="6">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="6">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="C41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="6">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="6">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="C43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="6">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="C44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="6">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="6">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="6">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="6">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="C48" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B49" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B50" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B51" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" t="s">
-        <v>37</v>
+      <c r="C51" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" t="s">
+        <v>214</v>
+      </c>
+      <c r="F51" t="s">
+        <v>215</v>
+      </c>
+      <c r="G51" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B52" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B53" s="6"/>
+      <c r="B53" s="6">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
       <c r="C53" t="s">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>204</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B54" s="6">
-        <f>B52+1</f>
-        <v>51</v>
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
-      </c>
-      <c r="D54" t="s">
-        <v>179</v>
-      </c>
-      <c r="E54" t="s">
-        <v>148</v>
-      </c>
-      <c r="F54" t="s">
-        <v>200</v>
-      </c>
-      <c r="G54" t="s">
-        <v>201</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B55" s="6">
-        <f t="shared" si="1"/>
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="D55" t="s">
-        <v>192</v>
-      </c>
-      <c r="E55" t="s">
-        <v>148</v>
-      </c>
-      <c r="F55" t="s">
-        <v>200</v>
-      </c>
-      <c r="G55" t="s">
-        <v>202</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B56" s="6">
-        <f t="shared" si="1"/>
-        <v>53</v>
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
-      </c>
-      <c r="D56" t="s">
-        <v>183</v>
-      </c>
-      <c r="E56" t="s">
-        <v>148</v>
-      </c>
-      <c r="F56" t="s">
-        <v>200</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B57" s="6">
-        <f t="shared" si="1"/>
-        <v>54</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
-      </c>
-      <c r="D57" t="s">
-        <v>182</v>
-      </c>
-      <c r="E57" t="s">
-        <v>148</v>
-      </c>
-      <c r="F57" t="s">
-        <v>200</v>
-      </c>
-      <c r="G57" t="s">
-        <v>201</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B58" s="6">
-        <f t="shared" si="1"/>
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>184</v>
-      </c>
-      <c r="D58" t="s">
-        <v>185</v>
-      </c>
-      <c r="E58" t="s">
-        <v>148</v>
-      </c>
-      <c r="F58" t="s">
-        <v>200</v>
-      </c>
-      <c r="G58" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B59" s="6">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="C59" t="s">
-        <v>186</v>
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>193</v>
-      </c>
-      <c r="E59" t="s">
-        <v>148</v>
-      </c>
-      <c r="F59" t="s">
-        <v>200</v>
-      </c>
-      <c r="G59" t="s">
-        <v>201</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B60" s="6">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="C60" t="s">
-        <v>187</v>
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="D60" t="s">
-        <v>191</v>
-      </c>
-      <c r="E60" t="s">
-        <v>148</v>
-      </c>
-      <c r="F60" t="s">
-        <v>200</v>
-      </c>
-      <c r="G60" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B61" s="6">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="C61" t="s">
-        <v>189</v>
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>190</v>
-      </c>
-      <c r="E61" t="s">
-        <v>148</v>
-      </c>
-      <c r="F61" t="s">
-        <v>200</v>
-      </c>
-      <c r="G61" t="s">
-        <v>202</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B62" s="6">
-        <f t="shared" si="1"/>
-        <v>59</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="D62" t="s">
-        <v>195</v>
-      </c>
-      <c r="E62" t="s">
-        <v>148</v>
-      </c>
-      <c r="F62" t="s">
-        <v>200</v>
-      </c>
-      <c r="G62" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B63" s="6">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="D63" t="s">
-        <v>147</v>
-      </c>
-      <c r="E63" t="s">
-        <v>148</v>
-      </c>
-      <c r="F63" t="s">
-        <v>149</v>
-      </c>
-      <c r="G63" t="s">
-        <v>150</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B64" s="6">
-        <f>B63+1</f>
-        <v>61</v>
+        <f t="shared" si="0"/>
+        <v>62</v>
       </c>
       <c r="C64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B65" s="6">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B66" s="6">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B67" s="6">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B68" s="6">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>177</v>
+      </c>
+      <c r="D68" t="s">
+        <v>178</v>
+      </c>
+      <c r="E68" t="s">
+        <v>147</v>
+      </c>
+      <c r="F68" t="s">
+        <v>199</v>
+      </c>
+      <c r="G68" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B69" s="6">
+        <f t="shared" ref="B69:B129" si="1">B68+1</f>
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" t="s">
+        <v>147</v>
+      </c>
+      <c r="F69" t="s">
+        <v>199</v>
+      </c>
+      <c r="G69" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B70" s="6">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>180</v>
+      </c>
+      <c r="D70" t="s">
+        <v>182</v>
+      </c>
+      <c r="E70" t="s">
+        <v>147</v>
+      </c>
+      <c r="F70" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B71" s="6">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" t="s">
+        <v>181</v>
+      </c>
+      <c r="E71" t="s">
+        <v>147</v>
+      </c>
+      <c r="F71" t="s">
+        <v>199</v>
+      </c>
+      <c r="G71" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B72" s="6">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" t="s">
+        <v>184</v>
+      </c>
+      <c r="E72" t="s">
+        <v>147</v>
+      </c>
+      <c r="F72" t="s">
+        <v>199</v>
+      </c>
+      <c r="G72" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B73" s="6">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73" t="s">
+        <v>192</v>
+      </c>
+      <c r="E73" t="s">
+        <v>147</v>
+      </c>
+      <c r="F73" t="s">
+        <v>199</v>
+      </c>
+      <c r="G73" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B74" s="6">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" t="s">
+        <v>147</v>
+      </c>
+      <c r="F74" t="s">
+        <v>199</v>
+      </c>
+      <c r="G74" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B75" s="6">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
+        <v>188</v>
+      </c>
+      <c r="D75" t="s">
+        <v>189</v>
+      </c>
+      <c r="E75" t="s">
+        <v>147</v>
+      </c>
+      <c r="F75" t="s">
+        <v>199</v>
+      </c>
+      <c r="G75" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B76" s="6">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>193</v>
+      </c>
+      <c r="D76" t="s">
+        <v>194</v>
+      </c>
+      <c r="E76" t="s">
+        <v>147</v>
+      </c>
+      <c r="F76" t="s">
+        <v>199</v>
+      </c>
+      <c r="G76" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B77" s="6">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" t="s">
+        <v>146</v>
+      </c>
+      <c r="E77" t="s">
+        <v>147</v>
+      </c>
+      <c r="F77" t="s">
+        <v>148</v>
+      </c>
+      <c r="G77" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B78" s="6">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>195</v>
+      </c>
+      <c r="D78" t="s">
         <v>196</v>
       </c>
-      <c r="D64" t="s">
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B79" s="6">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B80" s="6">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B65" s="6">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="C65" t="s">
-        <v>163</v>
-      </c>
-      <c r="D65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B66" s="6">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D80" t="s">
         <v>198</v>
-      </c>
-      <c r="D66" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B67" s="6">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="C67" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B68" s="6">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C68" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B69" s="6">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="C69" t="s">
-        <v>164</v>
-      </c>
-      <c r="D69" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B70" s="6">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="C70" t="s">
-        <v>166</v>
-      </c>
-      <c r="D70" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B71" s="6">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="C71" t="s">
-        <v>168</v>
-      </c>
-      <c r="D71" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B72" s="6">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="C72" t="s">
-        <v>170</v>
-      </c>
-      <c r="D72" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B73" s="6">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="C73" t="s">
-        <v>172</v>
-      </c>
-      <c r="D73" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B74" s="6">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="C74" t="s">
-        <v>174</v>
-      </c>
-      <c r="D74" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B75" s="6">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="C75" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B76" s="6">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="C76" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B77" s="6">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="C77" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B78" s="6">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="C78" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B79" s="6">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="C79" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B80" s="6">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="C80" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B81" s="6">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>78</v>
-      </c>
-      <c r="D81" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B82" s="6">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B83" s="6">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>80</v>
+        <v>163</v>
+      </c>
+      <c r="D83" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B84" s="6">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>138</v>
+        <v>165</v>
+      </c>
+      <c r="D84" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B85" s="6">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>137</v>
+        <v>167</v>
+      </c>
+      <c r="D85" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B86" s="6">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>136</v>
+        <v>169</v>
+      </c>
+      <c r="D86" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B87" s="6">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>135</v>
+        <v>171</v>
+      </c>
+      <c r="D87" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B88" s="6">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>134</v>
+        <v>173</v>
+      </c>
+      <c r="D88" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B89" s="6">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B90" s="6">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B91" s="6">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B92" s="6">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B93" s="6">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B94" s="6">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B95" s="6">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>127</v>
+        <v>77</v>
+      </c>
+      <c r="D95" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B96" s="6">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B97" s="6">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B98" s="6">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B99" s="6">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>60</v>
-      </c>
-      <c r="D99" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B100" s="6">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>61</v>
-      </c>
-      <c r="D100" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B101" s="6">
-        <f t="shared" ref="B101:B117" si="2">B100+1</f>
-        <v>98</v>
+        <f t="shared" si="1"/>
+        <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>62</v>
-      </c>
-      <c r="D101" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B102" s="6">
-        <f t="shared" si="2"/>
-        <v>99</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>63</v>
-      </c>
-      <c r="D102" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B103" s="6">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>64</v>
-      </c>
-      <c r="D103" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B104" s="6">
-        <f t="shared" si="2"/>
-        <v>101</v>
+        <f t="shared" si="1"/>
+        <v>102</v>
       </c>
       <c r="C104" t="s">
-        <v>65</v>
-      </c>
-      <c r="D104" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B105" s="6">
-        <f t="shared" si="2"/>
-        <v>102</v>
+        <f t="shared" si="1"/>
+        <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D105" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B106" s="6">
-        <f t="shared" si="2"/>
-        <v>103</v>
+        <f t="shared" si="1"/>
+        <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>67</v>
-      </c>
-      <c r="D106" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B107" s="6">
-        <f t="shared" si="2"/>
-        <v>104</v>
+        <f t="shared" si="1"/>
+        <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>68</v>
-      </c>
-      <c r="D107" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B108" s="6">
-        <f t="shared" si="2"/>
-        <v>105</v>
+        <f t="shared" si="1"/>
+        <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>69</v>
-      </c>
-      <c r="D108" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B109" s="6">
-        <f t="shared" si="2"/>
-        <v>106</v>
+        <f t="shared" si="1"/>
+        <v>107</v>
       </c>
       <c r="C109" t="s">
-        <v>70</v>
-      </c>
-      <c r="D109" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B110" s="6">
-        <f t="shared" si="2"/>
-        <v>107</v>
+        <f t="shared" si="1"/>
+        <v>108</v>
       </c>
       <c r="C110" t="s">
-        <v>71</v>
-      </c>
-      <c r="D110" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B111" s="6">
-        <f t="shared" si="2"/>
-        <v>108</v>
+        <f t="shared" si="1"/>
+        <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D111" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B112" s="6">
-        <f t="shared" si="2"/>
-        <v>109</v>
+        <f t="shared" si="1"/>
+        <v>110</v>
       </c>
       <c r="C112" t="s">
+        <v>60</v>
+      </c>
+      <c r="D112" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B113" s="6">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="C113" t="s">
+        <v>61</v>
+      </c>
+      <c r="D113" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B114" s="6">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="C114" t="s">
+        <v>62</v>
+      </c>
+      <c r="D114" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B115" s="6">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B116" s="6">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="C116" t="s">
+        <v>64</v>
+      </c>
+      <c r="D116" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B117" s="6">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="C117" t="s">
+        <v>65</v>
+      </c>
+      <c r="D117" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B118" s="6">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="C118" t="s">
+        <v>66</v>
+      </c>
+      <c r="D118" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B119" s="6">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="C119" t="s">
+        <v>67</v>
+      </c>
+      <c r="D119" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B120" s="6">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B121" s="6">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="C121" t="s">
+        <v>69</v>
+      </c>
+      <c r="D121" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B122" s="6">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="C122" t="s">
+        <v>70</v>
+      </c>
+      <c r="D122" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B123" s="6">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="C123" t="s">
+        <v>71</v>
+      </c>
+      <c r="D123" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B124" s="6">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="C124" t="s">
+        <v>72</v>
+      </c>
+      <c r="D124" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B125" s="6">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="C125" t="s">
         <v>73</v>
       </c>
-      <c r="D112" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B113" s="6">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="D125" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B126" s="6">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="C126" t="s">
         <v>74</v>
       </c>
-      <c r="D113" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B114" s="6">
-        <f t="shared" si="2"/>
-        <v>111</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="D126" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B127" s="6">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="C127" t="s">
         <v>75</v>
       </c>
-      <c r="D114" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B115" s="6">
-        <f t="shared" si="2"/>
-        <v>112</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="D127" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B128" s="6">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="C128" t="s">
         <v>76</v>
       </c>
-      <c r="D115" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B116" s="6">
-        <f t="shared" si="2"/>
-        <v>113</v>
-      </c>
-      <c r="C116" t="s">
-        <v>77</v>
-      </c>
-      <c r="D116" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B117" s="6">
-        <f t="shared" si="2"/>
-        <v>114</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="D128" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B129" s="6">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="C129" t="s">
+        <v>150</v>
+      </c>
+      <c r="D129" t="s">
         <v>151</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E129" t="s">
         <v>152</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F129" t="s">
         <v>153</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G129" t="s">
         <v>154</v>
-      </c>
-      <c r="G117" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2626,16 +3025,16 @@
     <hyperlink ref="C5" r:id="rId3" xr:uid="{9F2B4896-6A92-43C3-90A8-01C4785E8E3D}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{0B7080EA-EFB6-4697-92E0-7C6C51429FAA}"/>
     <hyperlink ref="C10" r:id="rId5" xr:uid="{DA60F144-0FAA-4EE6-B8FF-2AA9A77FC0B2}"/>
-    <hyperlink ref="C20" r:id="rId6" xr:uid="{80F3A431-FCD1-4749-BC3F-6F6CF41D202E}"/>
-    <hyperlink ref="C21" r:id="rId7" xr:uid="{1089EEA3-ECD8-4D62-96D8-AD0C91E4FF59}"/>
-    <hyperlink ref="C25" r:id="rId8" xr:uid="{89181273-63F7-4051-BD3D-F2E711F0F9AC}"/>
-    <hyperlink ref="C27" r:id="rId9" xr:uid="{A3566864-119C-4056-A95A-3F44EC9C7260}"/>
-    <hyperlink ref="C29" r:id="rId10" xr:uid="{94DBF269-9017-4440-AF9D-C3966428ABC5}"/>
-    <hyperlink ref="C34" r:id="rId11" xr:uid="{7D546171-7BCF-43CE-947B-C0BEDAB801CF}"/>
-    <hyperlink ref="C45" r:id="rId12" xr:uid="{C73214AB-98B0-497C-8C09-4B1CD8AF4C61}"/>
-    <hyperlink ref="C47" r:id="rId13" xr:uid="{5EE9F009-D393-4C47-B0F1-2E315E13F2B6}"/>
-    <hyperlink ref="C51" r:id="rId14" xr:uid="{393C21F9-BAA9-4398-B8AD-70656C748927}"/>
-    <hyperlink ref="C35" r:id="rId15" xr:uid="{3885F206-1C4C-4217-ABA8-F0F256EB014F}"/>
+    <hyperlink ref="C32" r:id="rId6" xr:uid="{80F3A431-FCD1-4749-BC3F-6F6CF41D202E}"/>
+    <hyperlink ref="C33" r:id="rId7" xr:uid="{1089EEA3-ECD8-4D62-96D8-AD0C91E4FF59}"/>
+    <hyperlink ref="C45" r:id="rId8" xr:uid="{89181273-63F7-4051-BD3D-F2E711F0F9AC}"/>
+    <hyperlink ref="C46" r:id="rId9" xr:uid="{A3566864-119C-4056-A95A-3F44EC9C7260}"/>
+    <hyperlink ref="C48" r:id="rId10" xr:uid="{94DBF269-9017-4440-AF9D-C3966428ABC5}"/>
+    <hyperlink ref="C41" r:id="rId11" xr:uid="{7D546171-7BCF-43CE-947B-C0BEDAB801CF}"/>
+    <hyperlink ref="C59" r:id="rId12" xr:uid="{C73214AB-98B0-497C-8C09-4B1CD8AF4C61}"/>
+    <hyperlink ref="C61" r:id="rId13" xr:uid="{5EE9F009-D393-4C47-B0F1-2E315E13F2B6}"/>
+    <hyperlink ref="C65" r:id="rId14" xr:uid="{393C21F9-BAA9-4398-B8AD-70656C748927}"/>
+    <hyperlink ref="C42" r:id="rId15" xr:uid="{3885F206-1C4C-4217-ABA8-F0F256EB014F}"/>
     <hyperlink ref="C12" r:id="rId16" xr:uid="{8B931CCC-3957-47DF-B598-7C12F0DF3FE3}"/>
     <hyperlink ref="C11" r:id="rId17" xr:uid="{29EBBDA6-AB70-4834-9E6E-2572419293BE}"/>
   </hyperlinks>

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EC4169-228A-475B-BE9D-EE4A7FFFD61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ECBA22-20DF-4DBE-BB4C-2D21E3AAA1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20800" yWindow="2550" windowWidth="17090" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Private Equity" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="243">
   <si>
     <t>Name</t>
   </si>
@@ -750,6 +751,21 @@
   </si>
   <si>
     <t>seedalive GmbH</t>
+  </si>
+  <si>
+    <t>Astanor</t>
+  </si>
+  <si>
+    <t>Magrow Tec</t>
+  </si>
+  <si>
+    <t>Spray technology</t>
+  </si>
+  <si>
+    <t>GUSS Automation</t>
+  </si>
+  <si>
+    <t>Bought by JD</t>
   </si>
 </sst>
 </file>
@@ -1122,29 +1138,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AG129"/>
+  <dimension ref="B1:AG131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
+      <selection pane="bottomRight" activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="2:33" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +1255,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -1256,7 +1272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
         <f>B3+1</f>
         <v>2</v>
@@ -1274,7 +1290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
         <f t="shared" ref="B5:B68" si="0">B4+1</f>
         <v>3</v>
@@ -1292,7 +1308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1310,7 +1326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1328,7 +1344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1346,7 +1362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1361,7 +1377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1402,7 +1418,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1443,7 +1459,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1461,7 +1477,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1473,7 +1489,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1494,7 +1510,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1515,7 +1531,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1536,7 +1552,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1554,7 +1570,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1569,7 +1585,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1587,7 +1603,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1602,7 +1618,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1611,7 +1627,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1620,7 +1636,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1629,7 +1645,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1638,7 +1654,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1647,7 +1663,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1656,7 +1672,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1665,7 +1681,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1683,7 +1699,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1698,7 +1714,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1719,7 +1735,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1737,7 +1753,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1758,7 +1774,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1779,7 +1795,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1800,7 +1816,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1821,7 +1837,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1842,7 +1858,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1863,7 +1879,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1884,7 +1900,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1902,7 +1918,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1920,7 +1936,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1941,7 +1957,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1962,7 +1978,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1977,7 +1993,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1992,7 +2008,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2004,7 +2020,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2016,7 +2032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2025,7 +2041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2037,7 +2053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2049,7 +2065,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2058,7 +2074,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2076,7 +2092,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2085,7 +2101,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2097,7 +2113,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2106,7 +2122,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2118,7 +2134,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2127,7 +2143,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2136,7 +2152,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2145,7 +2161,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2157,7 +2173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="6">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2169,7 +2185,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="6">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2181,7 +2197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="6">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2193,7 +2209,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="6">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2205,7 +2221,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="6">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2214,7 +2230,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="6">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2226,7 +2242,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="6">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2235,7 +2251,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="6">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2247,7 +2263,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="6">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2268,9 +2284,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="6">
-        <f t="shared" ref="B69:B129" si="1">B68+1</f>
+        <f t="shared" ref="B69:B131" si="1">B68+1</f>
         <v>67</v>
       </c>
       <c r="C69" t="s">
@@ -2289,7 +2305,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="6">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -2307,7 +2323,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="6">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -2328,7 +2344,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="6">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -2349,7 +2365,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="6">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -2370,7 +2386,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="6">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -2391,7 +2407,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="6">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -2412,7 +2428,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="6">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -2433,7 +2449,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="6">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -2454,7 +2470,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="6">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -2466,7 +2482,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="6">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -2478,7 +2494,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="6">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -2490,7 +2506,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="6">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -2499,7 +2515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="6">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -2508,7 +2524,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="6">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -2520,7 +2536,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="6">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -2532,7 +2548,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="6">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -2544,7 +2560,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="6">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -2556,7 +2572,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="6">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -2568,7 +2584,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="6">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -2580,7 +2596,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="6">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -2589,7 +2605,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="6">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -2598,7 +2614,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="6">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -2607,7 +2623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="6">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -2616,7 +2632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="6">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -2625,7 +2641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="6">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -2634,7 +2650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="6">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -2646,7 +2662,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="6">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -2655,7 +2671,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="6">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -2664,7 +2680,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="6">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -2673,7 +2689,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="6">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -2682,7 +2698,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="6">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -2691,7 +2707,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="6">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -2700,7 +2716,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="6">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -2709,7 +2725,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="6">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -2718,7 +2734,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="6">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -2727,7 +2743,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="6">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -2736,7 +2752,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="6">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -2745,7 +2761,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="6">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -2754,7 +2770,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="6">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -2763,7 +2779,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="6">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -2772,7 +2788,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="6">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -2781,7 +2797,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="6">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -2793,7 +2809,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="6">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -2805,7 +2821,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="6">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -2817,7 +2833,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="6">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -2829,7 +2845,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="6">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -2841,7 +2857,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="6">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -2853,7 +2869,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="6">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -2865,7 +2881,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="6">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -2877,7 +2893,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="6">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -2889,7 +2905,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="6">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -2901,7 +2917,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="6">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -2913,7 +2929,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="6">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -2925,7 +2941,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="6">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -2937,7 +2953,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="6">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -2949,7 +2965,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="6">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -2961,7 +2977,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="6">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -2973,7 +2989,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="6">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -2985,7 +3001,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="6">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -2997,7 +3013,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="6">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -3016,6 +3032,48 @@
       </c>
       <c r="G129" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="6">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="C130" t="s">
+        <v>239</v>
+      </c>
+      <c r="D130" t="s">
+        <v>80</v>
+      </c>
+      <c r="E130" t="s">
+        <v>205</v>
+      </c>
+      <c r="F130" t="s">
+        <v>240</v>
+      </c>
+      <c r="G130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="6">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="C131" t="s">
+        <v>241</v>
+      </c>
+      <c r="D131" t="s">
+        <v>242</v>
+      </c>
+      <c r="E131" t="s">
+        <v>205</v>
+      </c>
+      <c r="F131" t="s">
+        <v>240</v>
+      </c>
+      <c r="G131" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3041,4 +3099,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AA46DC-9AF3-4976-90BA-70DF77F659A9}">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{19EBB3D0-E0D9-40B8-B928-5868B4E70750}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ECBA22-20DF-4DBE-BB4C-2D21E3AAA1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DC2256-9F09-46E8-A35F-AEDB09F98401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20800" yWindow="2550" windowWidth="17090" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="246">
   <si>
     <t>Name</t>
   </si>
@@ -766,6 +766,15 @@
   </si>
   <si>
     <t>Bought by JD</t>
+  </si>
+  <si>
+    <t>Krispy Kreme</t>
+  </si>
+  <si>
+    <t>DNUT</t>
+  </si>
+  <si>
+    <t>Food Product</t>
   </si>
 </sst>
 </file>
@@ -1138,29 +1147,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AG131"/>
+  <dimension ref="B1:AG132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A133" sqref="A133"/>
+      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="2:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:33" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1255,7 +1264,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -1272,7 +1281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B4" s="6">
         <f>B3+1</f>
         <v>2</v>
@@ -1290,7 +1299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B5" s="6">
         <f t="shared" ref="B5:B68" si="0">B4+1</f>
         <v>3</v>
@@ -1308,7 +1317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1326,7 +1335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1344,7 +1353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1362,7 +1371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1377,7 +1386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1418,7 +1427,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1459,7 +1468,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1477,7 +1486,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1489,7 +1498,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1510,7 +1519,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1531,7 +1540,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1552,7 +1561,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1570,7 +1579,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1585,7 +1594,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1603,7 +1612,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1618,7 +1627,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1627,7 +1636,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1636,7 +1645,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1645,7 +1654,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1654,7 +1663,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1663,7 +1672,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1672,7 +1681,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1681,7 +1690,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1699,7 +1708,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1714,7 +1723,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1735,7 +1744,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1753,7 +1762,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1774,7 +1783,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1795,7 +1804,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1816,7 +1825,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1837,7 +1846,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1858,7 +1867,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1879,7 +1888,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1900,7 +1909,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1918,7 +1927,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1936,7 +1945,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1957,7 +1966,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1978,7 +1987,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1993,7 +2002,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2008,7 +2017,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B45" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2020,7 +2029,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B46" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2032,7 +2041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B47" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2041,7 +2050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B48" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2053,7 +2062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B49" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2065,7 +2074,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B50" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2074,7 +2083,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B51" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2092,7 +2101,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B52" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2101,7 +2110,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B53" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2113,7 +2122,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B54" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2122,7 +2131,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B55" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2134,7 +2143,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B56" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2143,7 +2152,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B57" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2152,7 +2161,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B58" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2161,7 +2170,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B59" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2173,7 +2182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B60" s="6">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2185,7 +2194,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B61" s="6">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2197,7 +2206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B62" s="6">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2209,7 +2218,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B63" s="6">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2221,7 +2230,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B64" s="6">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2230,7 +2239,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B65" s="6">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2242,7 +2251,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B66" s="6">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2251,7 +2260,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B67" s="6">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2263,7 +2272,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B68" s="6">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2284,9 +2293,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B69" s="6">
-        <f t="shared" ref="B69:B131" si="1">B68+1</f>
+        <f t="shared" ref="B69:B132" si="1">B68+1</f>
         <v>67</v>
       </c>
       <c r="C69" t="s">
@@ -2305,7 +2314,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B70" s="6">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -2323,7 +2332,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B71" s="6">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -2344,7 +2353,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B72" s="6">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -2365,37 +2374,37 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B73" s="6">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="D73" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="E73" t="s">
         <v>147</v>
       </c>
       <c r="F73" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="G73" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B74" s="6">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D74" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E74" t="s">
         <v>147</v>
@@ -2407,16 +2416,16 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B75" s="6">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D75" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E75" t="s">
         <v>147</v>
@@ -2425,19 +2434,19 @@
         <v>199</v>
       </c>
       <c r="G75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B76" s="6">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D76" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E76" t="s">
         <v>147</v>
@@ -2449,622 +2458,622 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B77" s="6">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="D77" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="E77" t="s">
         <v>147</v>
       </c>
       <c r="F77" t="s">
+        <v>199</v>
+      </c>
+      <c r="G77" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B78" s="6">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" t="s">
+        <v>146</v>
+      </c>
+      <c r="E78" t="s">
+        <v>147</v>
+      </c>
+      <c r="F78" t="s">
         <v>148</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G78" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="6">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="C78" t="s">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B79" s="6">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
         <v>195</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="6">
-        <f t="shared" si="1"/>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B80" s="6">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>162</v>
+      </c>
+      <c r="D80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B81" s="6">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
+        <v>197</v>
+      </c>
+      <c r="D81" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B82" s="6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B83" s="6">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B84" s="6">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
+        <v>163</v>
+      </c>
+      <c r="D84" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B85" s="6">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B86" s="6">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>167</v>
+      </c>
+      <c r="D86" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B87" s="6">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>169</v>
+      </c>
+      <c r="D87" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B88" s="6">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
+        <v>171</v>
+      </c>
+      <c r="D88" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B89" s="6">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
+        <v>173</v>
+      </c>
+      <c r="D89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B90" s="6">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="C90" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B91" s="6">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B92" s="6">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B93" s="6">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B94" s="6">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B95" s="6">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B96" s="6">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
         <v>77</v>
       </c>
-      <c r="C79" t="s">
-        <v>162</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="D96" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="6">
-        <f t="shared" si="1"/>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B97" s="6">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="C97" t="s">
         <v>78</v>
       </c>
-      <c r="C80" t="s">
-        <v>197</v>
-      </c>
-      <c r="D80" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="6">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B98" s="6">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="C98" t="s">
         <v>79</v>
       </c>
-      <c r="C81" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="6">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="C82" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="6">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="C83" t="s">
-        <v>163</v>
-      </c>
-      <c r="D83" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="6">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="C84" t="s">
-        <v>165</v>
-      </c>
-      <c r="D84" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="6">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="C85" t="s">
-        <v>167</v>
-      </c>
-      <c r="D85" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="6">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="C86" t="s">
-        <v>169</v>
-      </c>
-      <c r="D86" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="6">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="C87" t="s">
-        <v>171</v>
-      </c>
-      <c r="D87" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="6">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="C88" t="s">
-        <v>173</v>
-      </c>
-      <c r="D88" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="6">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="C89" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="6">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="C90" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="6">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="C91" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="6">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="C92" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="6">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="C93" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="6">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="C94" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="6">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="C95" t="s">
-        <v>77</v>
-      </c>
-      <c r="D95" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="6">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="C96" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="6">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="C97" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="6">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="C98" t="s">
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B99" s="6">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="C99" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="6">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="C99" t="s">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B100" s="6">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="C100" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="6">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="C100" t="s">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B101" s="6">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="C101" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="6">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="C101" t="s">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B102" s="6">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C102" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="6">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="C102" t="s">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B103" s="6">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="C103" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="6">
-        <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="C103" t="s">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B104" s="6">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="C104" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="6">
-        <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="C104" t="s">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B105" s="6">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="C105" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="6">
-        <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="C105" t="s">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B106" s="6">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="C106" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" s="6">
-        <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="C106" t="s">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B107" s="6">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="C107" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="6">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="C107" t="s">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B108" s="6">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="C108" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="6">
-        <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="C108" t="s">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B109" s="6">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="C109" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="6">
-        <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
-      <c r="C109" t="s">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B110" s="6">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="C110" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="6">
-        <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="C110" t="s">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B111" s="6">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="C111" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="6">
-        <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
-      <c r="C111" t="s">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B112" s="6">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="C112" t="s">
         <v>59</v>
-      </c>
-      <c r="D111" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="6">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="C112" t="s">
-        <v>60</v>
       </c>
       <c r="D112" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B113" s="6">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D113" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B114" s="6">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="C114" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D114" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B115" s="6">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D115" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B116" s="6">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="C116" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D116" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B117" s="6">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="C117" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D117" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B118" s="6">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="C118" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D118" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B119" s="6">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="C119" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D119" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B120" s="6">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="C120" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D120" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B121" s="6">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="C121" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D121" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B122" s="6">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="C122" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D122" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B123" s="6">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="C123" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D123" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B124" s="6">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="C124" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D124" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B125" s="6">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="C125" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D125" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B126" s="6">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D126" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B127" s="6">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="C127" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D127" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B128" s="6">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="C128" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D128" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B129" s="6">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="C129" t="s">
+        <v>76</v>
+      </c>
+      <c r="D129" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B130" s="6">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="C130" t="s">
         <v>150</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D130" t="s">
         <v>151</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E130" t="s">
         <v>152</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F130" t="s">
         <v>153</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G130" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B130" s="6">
-        <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="C130" t="s">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B131" s="6">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="C131" t="s">
         <v>239</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D131" t="s">
         <v>80</v>
-      </c>
-      <c r="E130" t="s">
-        <v>205</v>
-      </c>
-      <c r="F130" t="s">
-        <v>240</v>
-      </c>
-      <c r="G130" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B131" s="6">
-        <f t="shared" si="1"/>
-        <v>129</v>
-      </c>
-      <c r="C131" t="s">
-        <v>241</v>
-      </c>
-      <c r="D131" t="s">
-        <v>242</v>
       </c>
       <c r="E131" t="s">
         <v>205</v>
@@ -3073,6 +3082,27 @@
         <v>240</v>
       </c>
       <c r="G131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B132" s="6">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="C132" t="s">
+        <v>241</v>
+      </c>
+      <c r="D132" t="s">
+        <v>242</v>
+      </c>
+      <c r="E132" t="s">
+        <v>205</v>
+      </c>
+      <c r="F132" t="s">
+        <v>240</v>
+      </c>
+      <c r="G132" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3107,14 +3137,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>238</v>
       </c>

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DC2256-9F09-46E8-A35F-AEDB09F98401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0860B6-B439-44D6-8208-32A3D658CABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="263">
   <si>
     <t>Name</t>
   </si>
@@ -774,7 +774,58 @@
     <t>DNUT</t>
   </si>
   <si>
-    <t>Food Product</t>
+    <t>Above Food Ingredients</t>
+  </si>
+  <si>
+    <t>ABVE</t>
+  </si>
+  <si>
+    <t>Plant based</t>
+  </si>
+  <si>
+    <t>CPG</t>
+  </si>
+  <si>
+    <t>Village Farms International</t>
+  </si>
+  <si>
+    <t>VFF</t>
+  </si>
+  <si>
+    <t>Lamb Weston Holdings</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>Food Products</t>
+  </si>
+  <si>
+    <t>Food Processing</t>
+  </si>
+  <si>
+    <t>Local Bounti Corp</t>
+  </si>
+  <si>
+    <t>LOCL</t>
+  </si>
+  <si>
+    <t>Plants</t>
+  </si>
+  <si>
+    <t>Indoor Farming</t>
+  </si>
+  <si>
+    <t>Steakholder Foods</t>
+  </si>
+  <si>
+    <t>STKH</t>
+  </si>
+  <si>
+    <t>Cultured Meat</t>
+  </si>
+  <si>
+    <t>Protien</t>
   </si>
 </sst>
 </file>
@@ -1147,13 +1198,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AG132"/>
+  <dimension ref="B1:AG137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
+      <selection pane="bottomRight" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2295,7 +2346,7 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B69" s="6">
-        <f t="shared" ref="B69:B132" si="1">B68+1</f>
+        <f t="shared" ref="B69:B137" si="1">B68+1</f>
         <v>67</v>
       </c>
       <c r="C69" t="s">
@@ -2388,9 +2439,6 @@
       <c r="E73" t="s">
         <v>147</v>
       </c>
-      <c r="F73" t="s">
-        <v>245</v>
-      </c>
       <c r="G73" t="s">
         <v>200</v>
       </c>
@@ -2524,7 +2572,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B81" s="6">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -2536,160 +2584,217 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B82" s="6">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="C82" t="s">
+        <v>245</v>
+      </c>
+      <c r="D82" t="s">
+        <v>246</v>
+      </c>
+      <c r="E82" t="s">
+        <v>147</v>
+      </c>
+      <c r="F82" t="s">
+        <v>248</v>
+      </c>
+      <c r="G82" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B83" s="6">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>249</v>
+      </c>
+      <c r="D83" t="s">
+        <v>250</v>
+      </c>
+      <c r="E83" t="s">
+        <v>147</v>
+      </c>
+      <c r="F83" t="s">
+        <v>248</v>
+      </c>
+      <c r="G83" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B84" s="6">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
+        <v>251</v>
+      </c>
+      <c r="D84" t="s">
+        <v>252</v>
+      </c>
+      <c r="E84" t="s">
+        <v>147</v>
+      </c>
+      <c r="F84" t="s">
+        <v>253</v>
+      </c>
+      <c r="G84" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B85" s="6">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>255</v>
+      </c>
+      <c r="D85" t="s">
+        <v>256</v>
+      </c>
+      <c r="E85" t="s">
+        <v>147</v>
+      </c>
+      <c r="F85" t="s">
+        <v>257</v>
+      </c>
+      <c r="G85" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B86" s="6">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>259</v>
+      </c>
+      <c r="D86" t="s">
+        <v>260</v>
+      </c>
+      <c r="E86" t="s">
+        <v>147</v>
+      </c>
+      <c r="F86" t="s">
+        <v>262</v>
+      </c>
+      <c r="G86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B87" s="6">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B83" s="6">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="C83" t="s">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B88" s="6">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B84" s="6">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="C84" t="s">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B89" s="6">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
         <v>163</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D89" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B85" s="6">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="C85" t="s">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B90" s="6">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="C90" t="s">
         <v>165</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D90" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B86" s="6">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="C86" t="s">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B91" s="6">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
         <v>167</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D91" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B87" s="6">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="C87" t="s">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B92" s="6">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
         <v>169</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D92" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B88" s="6">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="C88" t="s">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B93" s="6">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
         <v>171</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D93" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B89" s="6">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="C89" t="s">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B94" s="6">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
         <v>173</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D94" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B90" s="6">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="C90" t="s">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B95" s="6">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B91" s="6">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="C91" t="s">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B96" s="6">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B92" s="6">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="C92" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B93" s="6">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="C93" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B94" s="6">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="C94" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B95" s="6">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="C95" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B96" s="6">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="C96" t="s">
-        <v>77</v>
-      </c>
-      <c r="D96" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.35">
@@ -2698,7 +2803,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.35">
@@ -2707,7 +2812,7 @@
         <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.35">
@@ -2716,7 +2821,7 @@
         <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.35">
@@ -2725,7 +2830,7 @@
         <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.35">
@@ -2734,7 +2839,10 @@
         <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>135</v>
+        <v>77</v>
+      </c>
+      <c r="D101" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.35">
@@ -2743,7 +2851,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.35">
@@ -2752,7 +2860,7 @@
         <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.35">
@@ -2761,7 +2869,7 @@
         <v>102</v>
       </c>
       <c r="C104" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.35">
@@ -2770,7 +2878,7 @@
         <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.35">
@@ -2779,7 +2887,7 @@
         <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.35">
@@ -2788,7 +2896,7 @@
         <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.35">
@@ -2797,7 +2905,7 @@
         <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.35">
@@ -2806,7 +2914,7 @@
         <v>107</v>
       </c>
       <c r="C109" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.35">
@@ -2815,7 +2923,7 @@
         <v>108</v>
       </c>
       <c r="C110" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.35">
@@ -2824,7 +2932,7 @@
         <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.35">
@@ -2833,10 +2941,7 @@
         <v>110</v>
       </c>
       <c r="C112" t="s">
-        <v>59</v>
-      </c>
-      <c r="D112" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.35">
@@ -2845,10 +2950,7 @@
         <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>60</v>
-      </c>
-      <c r="D113" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.35">
@@ -2857,10 +2959,7 @@
         <v>112</v>
       </c>
       <c r="C114" t="s">
-        <v>61</v>
-      </c>
-      <c r="D114" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.35">
@@ -2869,10 +2968,7 @@
         <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>62</v>
-      </c>
-      <c r="D115" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.35">
@@ -2881,10 +2977,7 @@
         <v>114</v>
       </c>
       <c r="C116" t="s">
-        <v>63</v>
-      </c>
-      <c r="D116" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.35">
@@ -2893,7 +2986,7 @@
         <v>115</v>
       </c>
       <c r="C117" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D117" t="s">
         <v>80</v>
@@ -2905,7 +2998,7 @@
         <v>116</v>
       </c>
       <c r="C118" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D118" t="s">
         <v>80</v>
@@ -2917,7 +3010,7 @@
         <v>117</v>
       </c>
       <c r="C119" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D119" t="s">
         <v>80</v>
@@ -2929,7 +3022,7 @@
         <v>118</v>
       </c>
       <c r="C120" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D120" t="s">
         <v>80</v>
@@ -2941,7 +3034,7 @@
         <v>119</v>
       </c>
       <c r="C121" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D121" t="s">
         <v>80</v>
@@ -2953,7 +3046,7 @@
         <v>120</v>
       </c>
       <c r="C122" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D122" t="s">
         <v>80</v>
@@ -2965,7 +3058,7 @@
         <v>121</v>
       </c>
       <c r="C123" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D123" t="s">
         <v>80</v>
@@ -2977,7 +3070,7 @@
         <v>122</v>
       </c>
       <c r="C124" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D124" t="s">
         <v>80</v>
@@ -2989,7 +3082,7 @@
         <v>123</v>
       </c>
       <c r="C125" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D125" t="s">
         <v>80</v>
@@ -3001,7 +3094,7 @@
         <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D126" t="s">
         <v>80</v>
@@ -3013,7 +3106,7 @@
         <v>125</v>
       </c>
       <c r="C127" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D127" t="s">
         <v>80</v>
@@ -3025,7 +3118,7 @@
         <v>126</v>
       </c>
       <c r="C128" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D128" t="s">
         <v>80</v>
@@ -3037,7 +3130,7 @@
         <v>127</v>
       </c>
       <c r="C129" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D129" t="s">
         <v>80</v>
@@ -3049,19 +3142,10 @@
         <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="D130" t="s">
-        <v>151</v>
-      </c>
-      <c r="E130" t="s">
-        <v>152</v>
-      </c>
-      <c r="F130" t="s">
-        <v>153</v>
-      </c>
-      <c r="G130" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.35">
@@ -3070,20 +3154,11 @@
         <v>129</v>
       </c>
       <c r="C131" t="s">
-        <v>239</v>
+        <v>73</v>
       </c>
       <c r="D131" t="s">
         <v>80</v>
       </c>
-      <c r="E131" t="s">
-        <v>205</v>
-      </c>
-      <c r="F131" t="s">
-        <v>240</v>
-      </c>
-      <c r="G131" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B132" s="6">
@@ -3091,18 +3166,96 @@
         <v>130</v>
       </c>
       <c r="C132" t="s">
+        <v>74</v>
+      </c>
+      <c r="D132" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B133" s="6">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="C133" t="s">
+        <v>75</v>
+      </c>
+      <c r="D133" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B134" s="6">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="C134" t="s">
+        <v>76</v>
+      </c>
+      <c r="D134" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B135" s="6">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="C135" t="s">
+        <v>150</v>
+      </c>
+      <c r="D135" t="s">
+        <v>151</v>
+      </c>
+      <c r="E135" t="s">
+        <v>152</v>
+      </c>
+      <c r="F135" t="s">
+        <v>153</v>
+      </c>
+      <c r="G135" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B136" s="6">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="C136" t="s">
+        <v>239</v>
+      </c>
+      <c r="D136" t="s">
+        <v>80</v>
+      </c>
+      <c r="E136" t="s">
+        <v>205</v>
+      </c>
+      <c r="F136" t="s">
+        <v>240</v>
+      </c>
+      <c r="G136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B137" s="6">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="C137" t="s">
         <v>241</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D137" t="s">
         <v>242</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E137" t="s">
         <v>205</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F137" t="s">
         <v>240</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G137" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0860B6-B439-44D6-8208-32A3D658CABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33968C3-421E-4BEE-867C-47FF76E79D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="265">
   <si>
     <t>Name</t>
   </si>
@@ -826,6 +826,12 @@
   </si>
   <si>
     <t>Protien</t>
+  </si>
+  <si>
+    <t>MeliBio</t>
+  </si>
+  <si>
+    <t>Acquired by FoodYoung Labs</t>
   </si>
 </sst>
 </file>
@@ -1198,13 +1204,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AG137"/>
+  <dimension ref="B1:AG138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D83" sqref="D83"/>
+      <selection pane="bottomRight" activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2346,7 +2352,7 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B69" s="6">
-        <f t="shared" ref="B69:B137" si="1">B68+1</f>
+        <f t="shared" ref="B69:B138" si="1">B68+1</f>
         <v>67</v>
       </c>
       <c r="C69" t="s">
@@ -3257,6 +3263,24 @@
       </c>
       <c r="G137" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B138" s="6">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="C138" t="s">
+        <v>263</v>
+      </c>
+      <c r="D138" t="s">
+        <v>264</v>
+      </c>
+      <c r="E138" t="s">
+        <v>147</v>
+      </c>
+      <c r="F138" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33968C3-421E-4BEE-867C-47FF76E79D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD16EB6D-6D05-4718-97C9-C2B102139B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="266">
   <si>
     <t>Name</t>
   </si>
@@ -832,6 +832,9 @@
   </si>
   <si>
     <t>Acquired by FoodYoung Labs</t>
+  </si>
+  <si>
+    <t>Grocery</t>
   </si>
 </sst>
 </file>
@@ -1207,10 +1210,10 @@
   <dimension ref="B1:AG138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G138" sqref="G138"/>
+      <selection pane="bottomRight" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2576,6 +2579,15 @@
       </c>
       <c r="D80" t="s">
         <v>80</v>
+      </c>
+      <c r="E80" t="s">
+        <v>147</v>
+      </c>
+      <c r="F80" t="s">
+        <v>265</v>
+      </c>
+      <c r="G80" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.35">
